--- a/TBR_9m.xlsx
+++ b/TBR_9m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\TBR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EDB442-FC24-492A-BABD-B7B3356D7EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F96156B-F8CC-4DFC-A9B1-4DED240A4816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,7 @@
     <t>wynik</t>
   </si>
   <si>
-    <t>Druk+e-wydania</t>
+    <t>Druk i E-wydania</t>
   </si>
 </sst>
 </file>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2044" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C2087"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3175,7 +3175,7 @@
       <c r="B148" s="20">
         <v>1</v>
       </c>
-      <c r="C148" s="26" t="s">
+      <c r="C148" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D148" s="22">
@@ -3189,7 +3189,7 @@
       <c r="B149" s="25">
         <v>3</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D149" s="22">
@@ -3203,7 +3203,7 @@
       <c r="B150" s="20">
         <v>4</v>
       </c>
-      <c r="C150" s="26" t="s">
+      <c r="C150" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D150" s="22">
@@ -3217,7 +3217,7 @@
       <c r="B151" s="20">
         <v>5</v>
       </c>
-      <c r="C151" s="26" t="s">
+      <c r="C151" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D151" s="22">
@@ -3231,7 +3231,7 @@
       <c r="B152" s="25">
         <v>6</v>
       </c>
-      <c r="C152" s="26" t="s">
+      <c r="C152" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D152" s="22">
@@ -3245,7 +3245,7 @@
       <c r="B153" s="20">
         <v>7</v>
       </c>
-      <c r="C153" s="26" t="s">
+      <c r="C153" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D153" s="22">
@@ -3259,7 +3259,7 @@
       <c r="B154" s="20">
         <v>8</v>
       </c>
-      <c r="C154" s="26" t="s">
+      <c r="C154" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D154" s="22">
@@ -3273,7 +3273,7 @@
       <c r="B155" s="25">
         <v>9</v>
       </c>
-      <c r="C155" s="26" t="s">
+      <c r="C155" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D155" s="22">
@@ -3313,7 +3313,7 @@
       <c r="B158" s="20">
         <v>1</v>
       </c>
-      <c r="C158" s="26" t="s">
+      <c r="C158" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D158" s="22">
@@ -3341,7 +3341,7 @@
       <c r="B160" s="25">
         <v>2</v>
       </c>
-      <c r="C160" s="26" t="s">
+      <c r="C160" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D160" s="22">
@@ -3369,7 +3369,7 @@
       <c r="B162" s="25">
         <v>3</v>
       </c>
-      <c r="C162" s="26" t="s">
+      <c r="C162" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D162" s="22">
@@ -3397,7 +3397,7 @@
       <c r="B164" s="20">
         <v>4</v>
       </c>
-      <c r="C164" s="26" t="s">
+      <c r="C164" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D164" s="22">
@@ -3425,7 +3425,7 @@
       <c r="B166" s="20">
         <v>5</v>
       </c>
-      <c r="C166" s="26" t="s">
+      <c r="C166" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D166" s="22">
@@ -3453,7 +3453,7 @@
       <c r="B168" s="20">
         <v>6</v>
       </c>
-      <c r="C168" s="26" t="s">
+      <c r="C168" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D168" s="22">
@@ -3509,7 +3509,7 @@
       <c r="B172" s="20">
         <v>7</v>
       </c>
-      <c r="C172" s="26" t="s">
+      <c r="C172" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D172" s="22">
@@ -3565,7 +3565,7 @@
       <c r="B176" s="20">
         <v>8</v>
       </c>
-      <c r="C176" s="26" t="s">
+      <c r="C176" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D176" s="22">
@@ -3621,7 +3621,7 @@
       <c r="B180" s="20">
         <v>9</v>
       </c>
-      <c r="C180" s="26" t="s">
+      <c r="C180" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D180" s="22">
@@ -3661,7 +3661,7 @@
       <c r="B183" s="41">
         <v>1</v>
       </c>
-      <c r="C183" s="43" t="s">
+      <c r="C183" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D183" s="44">
@@ -3689,7 +3689,7 @@
       <c r="B185" s="41">
         <v>2</v>
       </c>
-      <c r="C185" s="43" t="s">
+      <c r="C185" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D185" s="44">
@@ -3717,7 +3717,7 @@
       <c r="B187" s="41">
         <v>3</v>
       </c>
-      <c r="C187" s="43" t="s">
+      <c r="C187" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D187" s="44">
@@ -3745,7 +3745,7 @@
       <c r="B189" s="41">
         <v>4</v>
       </c>
-      <c r="C189" s="43" t="s">
+      <c r="C189" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D189" s="44">
@@ -3773,7 +3773,7 @@
       <c r="B191" s="42">
         <v>5</v>
       </c>
-      <c r="C191" s="43" t="s">
+      <c r="C191" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D191" s="44">
@@ -3801,7 +3801,7 @@
       <c r="B193" s="41">
         <v>6</v>
       </c>
-      <c r="C193" s="43" t="s">
+      <c r="C193" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D193" s="44">
@@ -3899,7 +3899,7 @@
       <c r="B200" s="42">
         <v>7</v>
       </c>
-      <c r="C200" s="43" t="s">
+      <c r="C200" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D200" s="44">
@@ -3997,7 +3997,7 @@
       <c r="B207" s="42">
         <v>8</v>
       </c>
-      <c r="C207" s="43" t="s">
+      <c r="C207" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D207" s="44">
@@ -4095,7 +4095,7 @@
       <c r="B214" s="41">
         <v>9</v>
       </c>
-      <c r="C214" s="43" t="s">
+      <c r="C214" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D214" s="44">
@@ -4135,7 +4135,7 @@
       <c r="B217" s="20">
         <v>1</v>
       </c>
-      <c r="C217" s="26" t="s">
+      <c r="C217" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D217" s="22">
@@ -4163,7 +4163,7 @@
       <c r="B219" s="25">
         <v>2</v>
       </c>
-      <c r="C219" s="26" t="s">
+      <c r="C219" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D219" s="22">
@@ -4191,7 +4191,7 @@
       <c r="B221" s="20">
         <v>3</v>
       </c>
-      <c r="C221" s="26" t="s">
+      <c r="C221" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D221" s="22">
@@ -4219,7 +4219,7 @@
       <c r="B223" s="20">
         <v>4</v>
       </c>
-      <c r="C223" s="26" t="s">
+      <c r="C223" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D223" s="22">
@@ -4247,7 +4247,7 @@
       <c r="B225" s="20">
         <v>5</v>
       </c>
-      <c r="C225" s="26" t="s">
+      <c r="C225" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D225" s="22">
@@ -4275,7 +4275,7 @@
       <c r="B227" s="20">
         <v>6</v>
       </c>
-      <c r="C227" s="26" t="s">
+      <c r="C227" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D227" s="22">
@@ -4331,7 +4331,7 @@
       <c r="B231" s="25">
         <v>7</v>
       </c>
-      <c r="C231" s="26" t="s">
+      <c r="C231" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D231" s="22">
@@ -4387,7 +4387,7 @@
       <c r="B235" s="20">
         <v>8</v>
       </c>
-      <c r="C235" s="26" t="s">
+      <c r="C235" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D235" s="22">
@@ -4443,7 +4443,7 @@
       <c r="B239" s="25">
         <v>9</v>
       </c>
-      <c r="C239" s="26" t="s">
+      <c r="C239" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D239" s="22">
@@ -4483,7 +4483,7 @@
       <c r="B242" s="25">
         <v>1</v>
       </c>
-      <c r="C242" s="26" t="s">
+      <c r="C242" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D242" s="22">
@@ -4511,7 +4511,7 @@
       <c r="B244" s="20">
         <v>2</v>
       </c>
-      <c r="C244" s="26" t="s">
+      <c r="C244" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D244" s="22">
@@ -4539,7 +4539,7 @@
       <c r="B246" s="20">
         <v>3</v>
       </c>
-      <c r="C246" s="26" t="s">
+      <c r="C246" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D246" s="22">
@@ -4567,7 +4567,7 @@
       <c r="B248" s="20">
         <v>4</v>
       </c>
-      <c r="C248" s="26" t="s">
+      <c r="C248" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D248" s="22">
@@ -4595,7 +4595,7 @@
       <c r="B250" s="20">
         <v>5</v>
       </c>
-      <c r="C250" s="26" t="s">
+      <c r="C250" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D250" s="22">
@@ -4623,7 +4623,7 @@
       <c r="B252" s="20">
         <v>6</v>
       </c>
-      <c r="C252" s="26" t="s">
+      <c r="C252" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D252" s="22">
@@ -4679,7 +4679,7 @@
       <c r="B256" s="20">
         <v>7</v>
       </c>
-      <c r="C256" s="26" t="s">
+      <c r="C256" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D256" s="22">
@@ -4735,7 +4735,7 @@
       <c r="B260" s="20">
         <v>8</v>
       </c>
-      <c r="C260" s="26" t="s">
+      <c r="C260" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D260" s="22">
@@ -4791,7 +4791,7 @@
       <c r="B264" s="20">
         <v>9</v>
       </c>
-      <c r="C264" s="26" t="s">
+      <c r="C264" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D264" s="22">
@@ -6379,7 +6379,7 @@
       <c r="B378" s="20">
         <v>1</v>
       </c>
-      <c r="C378" s="26" t="s">
+      <c r="C378" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D378" s="22">
@@ -6407,7 +6407,7 @@
       <c r="B380" s="20">
         <v>2</v>
       </c>
-      <c r="C380" s="26" t="s">
+      <c r="C380" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D380" s="22">
@@ -6435,7 +6435,7 @@
       <c r="B382" s="20">
         <v>3</v>
       </c>
-      <c r="C382" s="26" t="s">
+      <c r="C382" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D382" s="22">
@@ -6463,7 +6463,7 @@
       <c r="B384" s="20">
         <v>4</v>
       </c>
-      <c r="C384" s="26" t="s">
+      <c r="C384" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D384" s="22">
@@ -6491,7 +6491,7 @@
       <c r="B386" s="20">
         <v>5</v>
       </c>
-      <c r="C386" s="26" t="s">
+      <c r="C386" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D386" s="22">
@@ -6519,7 +6519,7 @@
       <c r="B388" s="20">
         <v>6</v>
       </c>
-      <c r="C388" s="26" t="s">
+      <c r="C388" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D388" s="22">
@@ -6575,7 +6575,7 @@
       <c r="B392" s="20">
         <v>7</v>
       </c>
-      <c r="C392" s="26" t="s">
+      <c r="C392" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D392" s="22">
@@ -6631,7 +6631,7 @@
       <c r="B396" s="20">
         <v>8</v>
       </c>
-      <c r="C396" s="26" t="s">
+      <c r="C396" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D396" s="22">
@@ -6687,7 +6687,7 @@
       <c r="B400" s="20">
         <v>9</v>
       </c>
-      <c r="C400" s="26" t="s">
+      <c r="C400" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D400" s="22">
@@ -6727,7 +6727,7 @@
       <c r="B403" s="20">
         <v>1</v>
       </c>
-      <c r="C403" s="26" t="s">
+      <c r="C403" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D403" s="22">
@@ -6755,7 +6755,7 @@
       <c r="B405" s="20">
         <v>2</v>
       </c>
-      <c r="C405" s="26" t="s">
+      <c r="C405" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D405" s="22">
@@ -6783,7 +6783,7 @@
       <c r="B407" s="20">
         <v>3</v>
       </c>
-      <c r="C407" s="26" t="s">
+      <c r="C407" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D407" s="22">
@@ -6811,7 +6811,7 @@
       <c r="B409" s="20">
         <v>4</v>
       </c>
-      <c r="C409" s="26" t="s">
+      <c r="C409" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D409" s="22">
@@ -6839,7 +6839,7 @@
       <c r="B411" s="20">
         <v>5</v>
       </c>
-      <c r="C411" s="26" t="s">
+      <c r="C411" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D411" s="22">
@@ -6867,7 +6867,7 @@
       <c r="B413" s="20">
         <v>6</v>
       </c>
-      <c r="C413" s="26" t="s">
+      <c r="C413" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D413" s="22">
@@ -6923,7 +6923,7 @@
       <c r="B417" s="20">
         <v>7</v>
       </c>
-      <c r="C417" s="26" t="s">
+      <c r="C417" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D417" s="22">
@@ -6979,7 +6979,7 @@
       <c r="B421" s="20">
         <v>8</v>
       </c>
-      <c r="C421" s="26" t="s">
+      <c r="C421" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D421" s="22">
@@ -7035,7 +7035,7 @@
       <c r="B425" s="20">
         <v>9</v>
       </c>
-      <c r="C425" s="26" t="s">
+      <c r="C425" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D425" s="22">
@@ -7075,7 +7075,7 @@
       <c r="B428" s="20">
         <v>1</v>
       </c>
-      <c r="C428" s="26" t="s">
+      <c r="C428" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D428" s="22">
@@ -7103,7 +7103,7 @@
       <c r="B430" s="20">
         <v>2</v>
       </c>
-      <c r="C430" s="26" t="s">
+      <c r="C430" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D430" s="22">
@@ -7131,7 +7131,7 @@
       <c r="B432" s="20">
         <v>3</v>
       </c>
-      <c r="C432" s="26" t="s">
+      <c r="C432" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D432" s="22">
@@ -7159,7 +7159,7 @@
       <c r="B434" s="20">
         <v>4</v>
       </c>
-      <c r="C434" s="26" t="s">
+      <c r="C434" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D434" s="22">
@@ -7187,7 +7187,7 @@
       <c r="B436" s="20">
         <v>5</v>
       </c>
-      <c r="C436" s="26" t="s">
+      <c r="C436" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D436" s="22">
@@ -7215,7 +7215,7 @@
       <c r="B438" s="20">
         <v>6</v>
       </c>
-      <c r="C438" s="26" t="s">
+      <c r="C438" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D438" s="22">
@@ -7271,7 +7271,7 @@
       <c r="B442" s="20">
         <v>7</v>
       </c>
-      <c r="C442" s="26" t="s">
+      <c r="C442" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D442" s="22">
@@ -7327,7 +7327,7 @@
       <c r="B446" s="20">
         <v>8</v>
       </c>
-      <c r="C446" s="26" t="s">
+      <c r="C446" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D446" s="22">
@@ -7383,7 +7383,7 @@
       <c r="B450" s="20">
         <v>9</v>
       </c>
-      <c r="C450" s="26" t="s">
+      <c r="C450" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D450" s="22">
@@ -7633,7 +7633,7 @@
       <c r="B468" s="20">
         <v>1</v>
       </c>
-      <c r="C468" s="26" t="s">
+      <c r="C468" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D468" s="22">
@@ -7661,7 +7661,7 @@
       <c r="B470" s="20">
         <v>2</v>
       </c>
-      <c r="C470" s="26" t="s">
+      <c r="C470" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D470" s="22">
@@ -7689,7 +7689,7 @@
       <c r="B472" s="20">
         <v>3</v>
       </c>
-      <c r="C472" s="26" t="s">
+      <c r="C472" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D472" s="22">
@@ -7717,7 +7717,7 @@
       <c r="B474" s="20">
         <v>4</v>
       </c>
-      <c r="C474" s="26" t="s">
+      <c r="C474" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D474" s="22">
@@ -7745,7 +7745,7 @@
       <c r="B476" s="20">
         <v>5</v>
       </c>
-      <c r="C476" s="26" t="s">
+      <c r="C476" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D476" s="22">
@@ -7773,7 +7773,7 @@
       <c r="B478" s="20">
         <v>6</v>
       </c>
-      <c r="C478" s="26" t="s">
+      <c r="C478" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D478" s="22">
@@ -7829,7 +7829,7 @@
       <c r="B482" s="20">
         <v>7</v>
       </c>
-      <c r="C482" s="26" t="s">
+      <c r="C482" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D482" s="22">
@@ -7885,7 +7885,7 @@
       <c r="B486" s="20">
         <v>8</v>
       </c>
-      <c r="C486" s="26" t="s">
+      <c r="C486" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D486" s="22">
@@ -7941,7 +7941,7 @@
       <c r="B490" s="20">
         <v>9</v>
       </c>
-      <c r="C490" s="26" t="s">
+      <c r="C490" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D490" s="22">
@@ -8191,7 +8191,7 @@
       <c r="B508" s="20">
         <v>1</v>
       </c>
-      <c r="C508" s="26" t="s">
+      <c r="C508" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D508" s="22">
@@ -8219,7 +8219,7 @@
       <c r="B510" s="20">
         <v>2</v>
       </c>
-      <c r="C510" s="26" t="s">
+      <c r="C510" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D510" s="22">
@@ -8247,7 +8247,7 @@
       <c r="B512" s="20">
         <v>3</v>
       </c>
-      <c r="C512" s="26" t="s">
+      <c r="C512" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D512" s="22">
@@ -8275,7 +8275,7 @@
       <c r="B514" s="20">
         <v>4</v>
       </c>
-      <c r="C514" s="26" t="s">
+      <c r="C514" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D514" s="22">
@@ -8303,7 +8303,7 @@
       <c r="B516" s="20">
         <v>5</v>
       </c>
-      <c r="C516" s="26" t="s">
+      <c r="C516" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D516" s="22">
@@ -8331,7 +8331,7 @@
       <c r="B518" s="20">
         <v>6</v>
       </c>
-      <c r="C518" s="26" t="s">
+      <c r="C518" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D518" s="22">
@@ -8387,7 +8387,7 @@
       <c r="B522" s="20">
         <v>7</v>
       </c>
-      <c r="C522" s="26" t="s">
+      <c r="C522" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D522" s="22">
@@ -8443,7 +8443,7 @@
       <c r="B526" s="20">
         <v>8</v>
       </c>
-      <c r="C526" s="26" t="s">
+      <c r="C526" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D526" s="22">
@@ -8499,7 +8499,7 @@
       <c r="B530" s="20">
         <v>9</v>
       </c>
-      <c r="C530" s="26" t="s">
+      <c r="C530" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D530" s="22">
@@ -8539,7 +8539,7 @@
       <c r="B533" s="20">
         <v>1</v>
       </c>
-      <c r="C533" s="26" t="s">
+      <c r="C533" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D533" s="22">
@@ -8567,7 +8567,7 @@
       <c r="B535" s="20">
         <v>2</v>
       </c>
-      <c r="C535" s="26" t="s">
+      <c r="C535" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D535" s="22">
@@ -8595,7 +8595,7 @@
       <c r="B537" s="20">
         <v>3</v>
       </c>
-      <c r="C537" s="26" t="s">
+      <c r="C537" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D537" s="22">
@@ -8623,7 +8623,7 @@
       <c r="B539" s="20">
         <v>4</v>
       </c>
-      <c r="C539" s="26" t="s">
+      <c r="C539" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D539" s="22">
@@ -8651,7 +8651,7 @@
       <c r="B541" s="20">
         <v>5</v>
       </c>
-      <c r="C541" s="26" t="s">
+      <c r="C541" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D541" s="22">
@@ -9907,7 +9907,7 @@
       <c r="B631" s="20">
         <v>8</v>
       </c>
-      <c r="C631" s="26" t="s">
+      <c r="C631" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D631" s="22">
@@ -9963,7 +9963,7 @@
       <c r="B635" s="20">
         <v>9</v>
       </c>
-      <c r="C635" s="26" t="s">
+      <c r="C635" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D635" s="22">
@@ -10003,7 +10003,7 @@
       <c r="B638" s="20">
         <v>1</v>
       </c>
-      <c r="C638" s="26" t="s">
+      <c r="C638" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D638" s="22">
@@ -10031,7 +10031,7 @@
       <c r="B640" s="20">
         <v>2</v>
       </c>
-      <c r="C640" s="26" t="s">
+      <c r="C640" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D640" s="22">
@@ -10059,7 +10059,7 @@
       <c r="B642" s="20">
         <v>3</v>
       </c>
-      <c r="C642" s="26" t="s">
+      <c r="C642" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D642" s="22">
@@ -10087,7 +10087,7 @@
       <c r="B644" s="20">
         <v>4</v>
       </c>
-      <c r="C644" s="26" t="s">
+      <c r="C644" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D644" s="22">
@@ -10115,7 +10115,7 @@
       <c r="B646" s="20">
         <v>5</v>
       </c>
-      <c r="C646" s="26" t="s">
+      <c r="C646" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D646" s="22">
@@ -10143,7 +10143,7 @@
       <c r="B648" s="20">
         <v>6</v>
       </c>
-      <c r="C648" s="26" t="s">
+      <c r="C648" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D648" s="22">
@@ -10199,7 +10199,7 @@
       <c r="B652" s="20">
         <v>7</v>
       </c>
-      <c r="C652" s="26" t="s">
+      <c r="C652" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D652" s="22">
@@ -10255,7 +10255,7 @@
       <c r="B656" s="20">
         <v>8</v>
       </c>
-      <c r="C656" s="26" t="s">
+      <c r="C656" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D656" s="22">
@@ -10311,7 +10311,7 @@
       <c r="B660" s="20">
         <v>9</v>
       </c>
-      <c r="C660" s="26" t="s">
+      <c r="C660" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D660" s="22">
@@ -10351,7 +10351,7 @@
       <c r="B663" s="20">
         <v>1</v>
       </c>
-      <c r="C663" s="26" t="s">
+      <c r="C663" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D663" s="22">
@@ -10379,7 +10379,7 @@
       <c r="B665" s="20">
         <v>2</v>
       </c>
-      <c r="C665" s="26" t="s">
+      <c r="C665" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D665" s="22">
@@ -10407,7 +10407,7 @@
       <c r="B667" s="20">
         <v>3</v>
       </c>
-      <c r="C667" s="26" t="s">
+      <c r="C667" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D667" s="22">
@@ -10435,7 +10435,7 @@
       <c r="B669" s="20">
         <v>4</v>
       </c>
-      <c r="C669" s="26" t="s">
+      <c r="C669" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D669" s="22">
@@ -10463,7 +10463,7 @@
       <c r="B671" s="20">
         <v>5</v>
       </c>
-      <c r="C671" s="26" t="s">
+      <c r="C671" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D671" s="22">
@@ -10491,7 +10491,7 @@
       <c r="B673" s="20">
         <v>6</v>
       </c>
-      <c r="C673" s="26" t="s">
+      <c r="C673" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D673" s="22">
@@ -10547,7 +10547,7 @@
       <c r="B677" s="20">
         <v>7</v>
       </c>
-      <c r="C677" s="26" t="s">
+      <c r="C677" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D677" s="22">
@@ -10603,7 +10603,7 @@
       <c r="B681" s="20">
         <v>8</v>
       </c>
-      <c r="C681" s="26" t="s">
+      <c r="C681" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D681" s="22">
@@ -10659,7 +10659,7 @@
       <c r="B685" s="20">
         <v>9</v>
       </c>
-      <c r="C685" s="26" t="s">
+      <c r="C685" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D685" s="22">
@@ -10825,7 +10825,7 @@
       <c r="B697" s="20">
         <v>1</v>
       </c>
-      <c r="C697" s="26" t="s">
+      <c r="C697" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D697" s="22">
@@ -10853,7 +10853,7 @@
       <c r="B699" s="20">
         <v>2</v>
       </c>
-      <c r="C699" s="26" t="s">
+      <c r="C699" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D699" s="22">
@@ -10881,7 +10881,7 @@
       <c r="B701" s="20">
         <v>3</v>
       </c>
-      <c r="C701" s="26" t="s">
+      <c r="C701" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D701" s="22">
@@ -10909,7 +10909,7 @@
       <c r="B703" s="20">
         <v>4</v>
       </c>
-      <c r="C703" s="26" t="s">
+      <c r="C703" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D703" s="22">
@@ -10937,7 +10937,7 @@
       <c r="B705" s="20">
         <v>5</v>
       </c>
-      <c r="C705" s="26" t="s">
+      <c r="C705" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D705" s="22">
@@ -10965,7 +10965,7 @@
       <c r="B707" s="20">
         <v>6</v>
       </c>
-      <c r="C707" s="26" t="s">
+      <c r="C707" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D707" s="22">
@@ -11021,7 +11021,7 @@
       <c r="B711" s="20">
         <v>7</v>
       </c>
-      <c r="C711" s="26" t="s">
+      <c r="C711" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D711" s="22">
@@ -11077,7 +11077,7 @@
       <c r="B715" s="20">
         <v>8</v>
       </c>
-      <c r="C715" s="26" t="s">
+      <c r="C715" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D715" s="22">
@@ -11133,7 +11133,7 @@
       <c r="B719" s="20">
         <v>9</v>
       </c>
-      <c r="C719" s="26" t="s">
+      <c r="C719" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D719" s="22">
@@ -11383,7 +11383,7 @@
       <c r="B737" s="20">
         <v>1</v>
       </c>
-      <c r="C737" s="26" t="s">
+      <c r="C737" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D737" s="22">
@@ -11411,7 +11411,7 @@
       <c r="B739" s="20">
         <v>2</v>
       </c>
-      <c r="C739" s="26" t="s">
+      <c r="C739" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D739" s="22">
@@ -11439,7 +11439,7 @@
       <c r="B741" s="20">
         <v>3</v>
       </c>
-      <c r="C741" s="26" t="s">
+      <c r="C741" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D741" s="22">
@@ -11467,7 +11467,7 @@
       <c r="B743" s="20">
         <v>4</v>
       </c>
-      <c r="C743" s="26" t="s">
+      <c r="C743" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D743" s="22">
@@ -11495,7 +11495,7 @@
       <c r="B745" s="20">
         <v>5</v>
       </c>
-      <c r="C745" s="26" t="s">
+      <c r="C745" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D745" s="22">
@@ -11523,7 +11523,7 @@
       <c r="B747" s="20">
         <v>6</v>
       </c>
-      <c r="C747" s="26" t="s">
+      <c r="C747" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D747" s="22">
@@ -11579,7 +11579,7 @@
       <c r="B751" s="20">
         <v>7</v>
       </c>
-      <c r="C751" s="26" t="s">
+      <c r="C751" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D751" s="22">
@@ -11635,7 +11635,7 @@
       <c r="B755" s="20">
         <v>8</v>
       </c>
-      <c r="C755" s="26" t="s">
+      <c r="C755" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D755" s="22">
@@ -11691,7 +11691,7 @@
       <c r="B759" s="20">
         <v>9</v>
       </c>
-      <c r="C759" s="26" t="s">
+      <c r="C759" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D759" s="22">
@@ -11717,7 +11717,7 @@
       <c r="B761" s="20">
         <v>1</v>
       </c>
-      <c r="C761" s="26" t="s">
+      <c r="C761" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D761" s="22">
@@ -11731,7 +11731,7 @@
       <c r="B762" s="20">
         <v>2</v>
       </c>
-      <c r="C762" s="26" t="s">
+      <c r="C762" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D762" s="22">
@@ -11745,7 +11745,7 @@
       <c r="B763" s="20">
         <v>3</v>
       </c>
-      <c r="C763" s="26" t="s">
+      <c r="C763" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D763" s="22">
@@ -11759,7 +11759,7 @@
       <c r="B764" s="20">
         <v>4</v>
       </c>
-      <c r="C764" s="26" t="s">
+      <c r="C764" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D764" s="22">
@@ -11773,7 +11773,7 @@
       <c r="B765" s="20">
         <v>5</v>
       </c>
-      <c r="C765" s="26" t="s">
+      <c r="C765" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D765" s="22">
@@ -11787,7 +11787,7 @@
       <c r="B766" s="20">
         <v>6</v>
       </c>
-      <c r="C766" s="26" t="s">
+      <c r="C766" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D766" s="22">
@@ -11801,7 +11801,7 @@
       <c r="B767" s="20">
         <v>7</v>
       </c>
-      <c r="C767" s="26" t="s">
+      <c r="C767" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D767" s="22">
@@ -11815,7 +11815,7 @@
       <c r="B768" s="20">
         <v>8</v>
       </c>
-      <c r="C768" s="26" t="s">
+      <c r="C768" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D768" s="22">
@@ -11829,7 +11829,7 @@
       <c r="B769" s="20">
         <v>9</v>
       </c>
-      <c r="C769" s="26" t="s">
+      <c r="C769" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D769" s="22">
@@ -11869,7 +11869,7 @@
       <c r="B772" s="20">
         <v>1</v>
       </c>
-      <c r="C772" s="26" t="s">
+      <c r="C772" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D772" s="22">
@@ -11897,7 +11897,7 @@
       <c r="B774" s="20">
         <v>2</v>
       </c>
-      <c r="C774" s="26" t="s">
+      <c r="C774" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D774" s="22">
@@ -11925,7 +11925,7 @@
       <c r="B776" s="20">
         <v>3</v>
       </c>
-      <c r="C776" s="26" t="s">
+      <c r="C776" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D776" s="22">
@@ -11953,7 +11953,7 @@
       <c r="B778" s="20">
         <v>4</v>
       </c>
-      <c r="C778" s="26" t="s">
+      <c r="C778" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D778" s="22">
@@ -11981,7 +11981,7 @@
       <c r="B780" s="20">
         <v>5</v>
       </c>
-      <c r="C780" s="26" t="s">
+      <c r="C780" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D780" s="22">
@@ -12009,7 +12009,7 @@
       <c r="B782" s="20">
         <v>6</v>
       </c>
-      <c r="C782" s="26" t="s">
+      <c r="C782" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D782" s="22">
@@ -12065,7 +12065,7 @@
       <c r="B786" s="20">
         <v>7</v>
       </c>
-      <c r="C786" s="26" t="s">
+      <c r="C786" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D786" s="22">
@@ -12121,7 +12121,7 @@
       <c r="B790" s="20">
         <v>8</v>
       </c>
-      <c r="C790" s="26" t="s">
+      <c r="C790" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D790" s="22">
@@ -12177,7 +12177,7 @@
       <c r="B794" s="20">
         <v>9</v>
       </c>
-      <c r="C794" s="26" t="s">
+      <c r="C794" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D794" s="22">
@@ -12217,7 +12217,7 @@
       <c r="B797" s="20">
         <v>1</v>
       </c>
-      <c r="C797" s="26" t="s">
+      <c r="C797" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D797" s="22">
@@ -12245,7 +12245,7 @@
       <c r="B799" s="20">
         <v>2</v>
       </c>
-      <c r="C799" s="26" t="s">
+      <c r="C799" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D799" s="22">
@@ -12273,7 +12273,7 @@
       <c r="B801" s="20">
         <v>3</v>
       </c>
-      <c r="C801" s="26" t="s">
+      <c r="C801" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D801" s="22">
@@ -12301,7 +12301,7 @@
       <c r="B803" s="25">
         <v>4</v>
       </c>
-      <c r="C803" s="18" t="s">
+      <c r="C803" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D803" s="27">
@@ -12329,7 +12329,7 @@
       <c r="B805" s="25">
         <v>5</v>
       </c>
-      <c r="C805" s="18" t="s">
+      <c r="C805" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D805" s="27">
@@ -12357,7 +12357,7 @@
       <c r="B807" s="25">
         <v>6</v>
       </c>
-      <c r="C807" s="18" t="s">
+      <c r="C807" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D807" s="27">
@@ -12413,7 +12413,7 @@
       <c r="B811" s="25">
         <v>7</v>
       </c>
-      <c r="C811" s="18" t="s">
+      <c r="C811" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D811" s="27">
@@ -12469,7 +12469,7 @@
       <c r="B815" s="25">
         <v>8</v>
       </c>
-      <c r="C815" s="18" t="s">
+      <c r="C815" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D815" s="27">
@@ -12525,7 +12525,7 @@
       <c r="B819" s="25">
         <v>9</v>
       </c>
-      <c r="C819" s="18" t="s">
+      <c r="C819" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D819" s="27">
@@ -12775,7 +12775,7 @@
       <c r="B837" s="25">
         <v>1</v>
       </c>
-      <c r="C837" s="18" t="s">
+      <c r="C837" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D837" s="27">
@@ -12803,7 +12803,7 @@
       <c r="B839" s="25">
         <v>2</v>
       </c>
-      <c r="C839" s="18" t="s">
+      <c r="C839" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D839" s="27">
@@ -12831,7 +12831,7 @@
       <c r="B841" s="25">
         <v>3</v>
       </c>
-      <c r="C841" s="18" t="s">
+      <c r="C841" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D841" s="27">
@@ -12859,7 +12859,7 @@
       <c r="B843" s="25">
         <v>4</v>
       </c>
-      <c r="C843" s="18" t="s">
+      <c r="C843" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D843" s="27">
@@ -12887,7 +12887,7 @@
       <c r="B845" s="25">
         <v>5</v>
       </c>
-      <c r="C845" s="18" t="s">
+      <c r="C845" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D845" s="27">
@@ -12915,7 +12915,7 @@
       <c r="B847" s="25">
         <v>6</v>
       </c>
-      <c r="C847" s="18" t="s">
+      <c r="C847" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D847" s="27">
@@ -12971,7 +12971,7 @@
       <c r="B851" s="25">
         <v>7</v>
       </c>
-      <c r="C851" s="18" t="s">
+      <c r="C851" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D851" s="27">
@@ -13027,7 +13027,7 @@
       <c r="B855" s="25">
         <v>8</v>
       </c>
-      <c r="C855" s="18" t="s">
+      <c r="C855" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D855" s="27">
@@ -13083,7 +13083,7 @@
       <c r="B859" s="25">
         <v>9</v>
       </c>
-      <c r="C859" s="18" t="s">
+      <c r="C859" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D859" s="27">
@@ -13123,7 +13123,7 @@
       <c r="B862" s="25">
         <v>1</v>
       </c>
-      <c r="C862" s="18" t="s">
+      <c r="C862" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D862" s="27">
@@ -13151,7 +13151,7 @@
       <c r="B864" s="25">
         <v>2</v>
       </c>
-      <c r="C864" s="18" t="s">
+      <c r="C864" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D864" s="27">
@@ -13179,7 +13179,7 @@
       <c r="B866" s="25">
         <v>3</v>
       </c>
-      <c r="C866" s="18" t="s">
+      <c r="C866" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D866" s="27">
@@ -13207,7 +13207,7 @@
       <c r="B868" s="25">
         <v>4</v>
       </c>
-      <c r="C868" s="18" t="s">
+      <c r="C868" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D868" s="27">
@@ -13235,7 +13235,7 @@
       <c r="B870" s="25">
         <v>5</v>
       </c>
-      <c r="C870" s="18" t="s">
+      <c r="C870" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D870" s="27">
@@ -13263,7 +13263,7 @@
       <c r="B872" s="25">
         <v>6</v>
       </c>
-      <c r="C872" s="18" t="s">
+      <c r="C872" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D872" s="27">
@@ -13319,7 +13319,7 @@
       <c r="B876" s="25">
         <v>7</v>
       </c>
-      <c r="C876" s="18" t="s">
+      <c r="C876" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D876" s="27">
@@ -13375,7 +13375,7 @@
       <c r="B880" s="25">
         <v>8</v>
       </c>
-      <c r="C880" s="18" t="s">
+      <c r="C880" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D880" s="27">
@@ -13431,7 +13431,7 @@
       <c r="B884" s="25">
         <v>9</v>
       </c>
-      <c r="C884" s="18" t="s">
+      <c r="C884" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D884" s="27">
@@ -13667,7 +13667,7 @@
       <c r="B901" s="25">
         <v>1</v>
       </c>
-      <c r="C901" s="18" t="s">
+      <c r="C901" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D901" s="27">
@@ -13681,7 +13681,7 @@
       <c r="B902" s="25">
         <v>2</v>
       </c>
-      <c r="C902" s="18" t="s">
+      <c r="C902" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D902" s="27">
@@ -13695,7 +13695,7 @@
       <c r="B903" s="25">
         <v>3</v>
       </c>
-      <c r="C903" s="18" t="s">
+      <c r="C903" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D903" s="27">
@@ -13709,7 +13709,7 @@
       <c r="B904" s="25">
         <v>4</v>
       </c>
-      <c r="C904" s="18" t="s">
+      <c r="C904" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D904" s="27">
@@ -13723,7 +13723,7 @@
       <c r="B905" s="25">
         <v>5</v>
       </c>
-      <c r="C905" s="18" t="s">
+      <c r="C905" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D905" s="27">
@@ -13737,7 +13737,7 @@
       <c r="B906" s="25">
         <v>6</v>
       </c>
-      <c r="C906" s="18" t="s">
+      <c r="C906" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D906" s="27">
@@ -13751,7 +13751,7 @@
       <c r="B907" s="25">
         <v>7</v>
       </c>
-      <c r="C907" s="18" t="s">
+      <c r="C907" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D907" s="27">
@@ -13765,7 +13765,7 @@
       <c r="B908" s="25">
         <v>8</v>
       </c>
-      <c r="C908" s="18" t="s">
+      <c r="C908" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D908" s="27">
@@ -13779,7 +13779,7 @@
       <c r="B909" s="25">
         <v>9</v>
       </c>
-      <c r="C909" s="18" t="s">
+      <c r="C909" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D909" s="27">
@@ -13945,7 +13945,7 @@
       <c r="B921" s="25">
         <v>1</v>
       </c>
-      <c r="C921" s="18" t="s">
+      <c r="C921" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D921" s="27">
@@ -13959,7 +13959,7 @@
       <c r="B922" s="25">
         <v>3</v>
       </c>
-      <c r="C922" s="18" t="s">
+      <c r="C922" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D922" s="27">
@@ -13973,7 +13973,7 @@
       <c r="B923" s="25">
         <v>4</v>
       </c>
-      <c r="C923" s="18" t="s">
+      <c r="C923" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D923" s="27">
@@ -13987,7 +13987,7 @@
       <c r="B924" s="25">
         <v>5</v>
       </c>
-      <c r="C924" s="18" t="s">
+      <c r="C924" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D924" s="27">
@@ -14001,7 +14001,7 @@
       <c r="B925" s="25">
         <v>6</v>
       </c>
-      <c r="C925" s="18" t="s">
+      <c r="C925" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D925" s="27">
@@ -14015,7 +14015,7 @@
       <c r="B926" s="25">
         <v>7</v>
       </c>
-      <c r="C926" s="18" t="s">
+      <c r="C926" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D926" s="27">
@@ -14029,7 +14029,7 @@
       <c r="B927" s="25">
         <v>8</v>
       </c>
-      <c r="C927" s="18" t="s">
+      <c r="C927" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D927" s="27">
@@ -14043,7 +14043,7 @@
       <c r="B928" s="25">
         <v>9</v>
       </c>
-      <c r="C928" s="18" t="s">
+      <c r="C928" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D928" s="27">
@@ -14587,7 +14587,7 @@
       <c r="B967" s="25">
         <v>1</v>
       </c>
-      <c r="C967" s="18" t="s">
+      <c r="C967" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D967" s="27">
@@ -14601,7 +14601,7 @@
       <c r="B968" s="25">
         <v>2</v>
       </c>
-      <c r="C968" s="18" t="s">
+      <c r="C968" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D968" s="27">
@@ -14615,7 +14615,7 @@
       <c r="B969" s="25">
         <v>3</v>
       </c>
-      <c r="C969" s="18" t="s">
+      <c r="C969" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D969" s="27">
@@ -14629,7 +14629,7 @@
       <c r="B970" s="25">
         <v>4</v>
       </c>
-      <c r="C970" s="18" t="s">
+      <c r="C970" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D970" s="27">
@@ -14643,7 +14643,7 @@
       <c r="B971" s="25">
         <v>5</v>
       </c>
-      <c r="C971" s="18" t="s">
+      <c r="C971" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D971" s="27">
@@ -14657,7 +14657,7 @@
       <c r="B972" s="25">
         <v>6</v>
       </c>
-      <c r="C972" s="18" t="s">
+      <c r="C972" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D972" s="27">
@@ -14671,7 +14671,7 @@
       <c r="B973" s="25">
         <v>7</v>
       </c>
-      <c r="C973" s="18" t="s">
+      <c r="C973" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D973" s="27">
@@ -14685,7 +14685,7 @@
       <c r="B974" s="25">
         <v>8</v>
       </c>
-      <c r="C974" s="18" t="s">
+      <c r="C974" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D974" s="27">
@@ -14699,7 +14699,7 @@
       <c r="B975" s="25">
         <v>9</v>
       </c>
-      <c r="C975" s="18" t="s">
+      <c r="C975" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D975" s="27">
@@ -15159,7 +15159,7 @@
       <c r="B1008" s="25">
         <v>1</v>
       </c>
-      <c r="C1008" s="18" t="s">
+      <c r="C1008" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1008" s="27">
@@ -15187,7 +15187,7 @@
       <c r="B1010" s="25">
         <v>2</v>
       </c>
-      <c r="C1010" s="18" t="s">
+      <c r="C1010" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1010" s="27">
@@ -15215,7 +15215,7 @@
       <c r="B1012" s="25">
         <v>3</v>
       </c>
-      <c r="C1012" s="18" t="s">
+      <c r="C1012" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1012" s="27">
@@ -15243,7 +15243,7 @@
       <c r="B1014" s="25">
         <v>4</v>
       </c>
-      <c r="C1014" s="18" t="s">
+      <c r="C1014" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1014" s="27">
@@ -15271,7 +15271,7 @@
       <c r="B1016" s="25">
         <v>5</v>
       </c>
-      <c r="C1016" s="18" t="s">
+      <c r="C1016" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1016" s="27">
@@ -15299,7 +15299,7 @@
       <c r="B1018" s="25">
         <v>6</v>
       </c>
-      <c r="C1018" s="18" t="s">
+      <c r="C1018" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1018" s="27">
@@ -15355,7 +15355,7 @@
       <c r="B1022" s="25">
         <v>7</v>
       </c>
-      <c r="C1022" s="18" t="s">
+      <c r="C1022" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1022" s="27">
@@ -15411,7 +15411,7 @@
       <c r="B1026" s="25">
         <v>8</v>
       </c>
-      <c r="C1026" s="18" t="s">
+      <c r="C1026" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1026" s="27">
@@ -15467,7 +15467,7 @@
       <c r="B1030" s="25">
         <v>9</v>
       </c>
-      <c r="C1030" s="18" t="s">
+      <c r="C1030" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1030" s="27">
@@ -15493,7 +15493,7 @@
       <c r="B1032" s="25">
         <v>1</v>
       </c>
-      <c r="C1032" s="18" t="s">
+      <c r="C1032" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1032" s="27">
@@ -15507,7 +15507,7 @@
       <c r="B1033" s="25">
         <v>2</v>
       </c>
-      <c r="C1033" s="18" t="s">
+      <c r="C1033" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1033" s="27">
@@ -15521,7 +15521,7 @@
       <c r="B1034" s="25">
         <v>3</v>
       </c>
-      <c r="C1034" s="18" t="s">
+      <c r="C1034" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1034" s="27">
@@ -15535,7 +15535,7 @@
       <c r="B1035" s="25">
         <v>4</v>
       </c>
-      <c r="C1035" s="18" t="s">
+      <c r="C1035" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1035" s="27">
@@ -15549,7 +15549,7 @@
       <c r="B1036" s="25">
         <v>5</v>
       </c>
-      <c r="C1036" s="18" t="s">
+      <c r="C1036" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1036" s="27">
@@ -15563,7 +15563,7 @@
       <c r="B1037" s="25">
         <v>6</v>
       </c>
-      <c r="C1037" s="18" t="s">
+      <c r="C1037" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1037" s="27">
@@ -15577,7 +15577,7 @@
       <c r="B1038" s="25">
         <v>7</v>
       </c>
-      <c r="C1038" s="18" t="s">
+      <c r="C1038" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1038" s="27">
@@ -15591,7 +15591,7 @@
       <c r="B1039" s="25">
         <v>8</v>
       </c>
-      <c r="C1039" s="18" t="s">
+      <c r="C1039" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1039" s="27">
@@ -15605,7 +15605,7 @@
       <c r="B1040" s="25">
         <v>9</v>
       </c>
-      <c r="C1040" s="18" t="s">
+      <c r="C1040" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1040" s="27">
@@ -16485,7 +16485,7 @@
       <c r="B1103" s="25">
         <v>1</v>
       </c>
-      <c r="C1103" s="18" t="s">
+      <c r="C1103" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1103" s="27">
@@ -16513,7 +16513,7 @@
       <c r="B1105" s="25">
         <v>2</v>
       </c>
-      <c r="C1105" s="18" t="s">
+      <c r="C1105" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1105" s="27">
@@ -16541,7 +16541,7 @@
       <c r="B1107" s="25">
         <v>3</v>
       </c>
-      <c r="C1107" s="18" t="s">
+      <c r="C1107" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1107" s="27">
@@ -16569,7 +16569,7 @@
       <c r="B1109" s="25">
         <v>4</v>
       </c>
-      <c r="C1109" s="18" t="s">
+      <c r="C1109" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1109" s="27">
@@ -16597,7 +16597,7 @@
       <c r="B1111" s="25">
         <v>5</v>
       </c>
-      <c r="C1111" s="18" t="s">
+      <c r="C1111" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1111" s="27">
@@ -16625,7 +16625,7 @@
       <c r="B1113" s="25">
         <v>6</v>
       </c>
-      <c r="C1113" s="18" t="s">
+      <c r="C1113" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1113" s="27">
@@ -16681,7 +16681,7 @@
       <c r="B1117" s="25">
         <v>7</v>
       </c>
-      <c r="C1117" s="18" t="s">
+      <c r="C1117" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1117" s="27">
@@ -16737,7 +16737,7 @@
       <c r="B1121" s="25">
         <v>8</v>
       </c>
-      <c r="C1121" s="18" t="s">
+      <c r="C1121" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1121" s="27">
@@ -16793,7 +16793,7 @@
       <c r="B1125" s="25">
         <v>9</v>
       </c>
-      <c r="C1125" s="18" t="s">
+      <c r="C1125" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1125" s="27">
@@ -17225,7 +17225,7 @@
       <c r="B1156" s="25">
         <v>1</v>
       </c>
-      <c r="C1156" s="18" t="s">
+      <c r="C1156" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1156" s="27">
@@ -17239,7 +17239,7 @@
       <c r="B1157" s="25">
         <v>3</v>
       </c>
-      <c r="C1157" s="18" t="s">
+      <c r="C1157" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1157" s="27">
@@ -17253,7 +17253,7 @@
       <c r="B1158" s="25">
         <v>4</v>
       </c>
-      <c r="C1158" s="18" t="s">
+      <c r="C1158" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1158" s="27">
@@ -17267,7 +17267,7 @@
       <c r="B1159" s="25">
         <v>5</v>
       </c>
-      <c r="C1159" s="18" t="s">
+      <c r="C1159" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1159" s="27">
@@ -17281,7 +17281,7 @@
       <c r="B1160" s="25">
         <v>6</v>
       </c>
-      <c r="C1160" s="18" t="s">
+      <c r="C1160" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1160" s="27">
@@ -17295,7 +17295,7 @@
       <c r="B1161" s="25">
         <v>7</v>
       </c>
-      <c r="C1161" s="18" t="s">
+      <c r="C1161" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1161" s="27">
@@ -17309,7 +17309,7 @@
       <c r="B1162" s="25">
         <v>8</v>
       </c>
-      <c r="C1162" s="18" t="s">
+      <c r="C1162" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1162" s="27">
@@ -17323,7 +17323,7 @@
       <c r="B1163" s="25">
         <v>9</v>
       </c>
-      <c r="C1163" s="18" t="s">
+      <c r="C1163" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1163" s="27">
@@ -17363,7 +17363,7 @@
       <c r="B1166" s="25">
         <v>1</v>
       </c>
-      <c r="C1166" s="18" t="s">
+      <c r="C1166" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1166" s="27">
@@ -17391,7 +17391,7 @@
       <c r="B1168" s="25">
         <v>2</v>
       </c>
-      <c r="C1168" s="18" t="s">
+      <c r="C1168" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1168" s="27">
@@ -17419,7 +17419,7 @@
       <c r="B1170" s="25">
         <v>3</v>
       </c>
-      <c r="C1170" s="18" t="s">
+      <c r="C1170" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1170" s="27">
@@ -17447,7 +17447,7 @@
       <c r="B1172" s="25">
         <v>4</v>
       </c>
-      <c r="C1172" s="18" t="s">
+      <c r="C1172" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1172" s="27">
@@ -17475,7 +17475,7 @@
       <c r="B1174" s="25">
         <v>5</v>
       </c>
-      <c r="C1174" s="18" t="s">
+      <c r="C1174" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1174" s="27">
@@ -17503,7 +17503,7 @@
       <c r="B1176" s="25">
         <v>6</v>
       </c>
-      <c r="C1176" s="18" t="s">
+      <c r="C1176" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1176" s="27">
@@ -17559,7 +17559,7 @@
       <c r="B1180" s="25">
         <v>7</v>
       </c>
-      <c r="C1180" s="18" t="s">
+      <c r="C1180" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1180" s="27">
@@ -17615,7 +17615,7 @@
       <c r="B1184" s="25">
         <v>8</v>
       </c>
-      <c r="C1184" s="18" t="s">
+      <c r="C1184" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1184" s="27">
@@ -17671,7 +17671,7 @@
       <c r="B1188" s="25">
         <v>9</v>
       </c>
-      <c r="C1188" s="18" t="s">
+      <c r="C1188" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1188" s="27">
@@ -17711,7 +17711,7 @@
       <c r="B1191" s="25">
         <v>1</v>
       </c>
-      <c r="C1191" s="18" t="s">
+      <c r="C1191" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1191" s="27">
@@ -17739,7 +17739,7 @@
       <c r="B1193" s="25">
         <v>2</v>
       </c>
-      <c r="C1193" s="18" t="s">
+      <c r="C1193" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1193" s="27">
@@ -17767,7 +17767,7 @@
       <c r="B1195" s="25">
         <v>3</v>
       </c>
-      <c r="C1195" s="18" t="s">
+      <c r="C1195" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1195" s="27">
@@ -17795,7 +17795,7 @@
       <c r="B1197" s="25">
         <v>4</v>
       </c>
-      <c r="C1197" s="18" t="s">
+      <c r="C1197" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1197" s="27">
@@ -17823,7 +17823,7 @@
       <c r="B1199" s="25">
         <v>5</v>
       </c>
-      <c r="C1199" s="18" t="s">
+      <c r="C1199" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1199" s="27">
@@ -17851,7 +17851,7 @@
       <c r="B1201" s="25">
         <v>6</v>
       </c>
-      <c r="C1201" s="18" t="s">
+      <c r="C1201" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1201" s="27">
@@ -17907,7 +17907,7 @@
       <c r="B1205" s="25">
         <v>7</v>
       </c>
-      <c r="C1205" s="18" t="s">
+      <c r="C1205" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1205" s="27">
@@ -17963,7 +17963,7 @@
       <c r="B1209" s="25">
         <v>8</v>
       </c>
-      <c r="C1209" s="18" t="s">
+      <c r="C1209" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1209" s="27">
@@ -18019,7 +18019,7 @@
       <c r="B1213" s="25">
         <v>9</v>
       </c>
-      <c r="C1213" s="18" t="s">
+      <c r="C1213" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1213" s="27">
@@ -18059,7 +18059,7 @@
       <c r="B1216" s="25">
         <v>1</v>
       </c>
-      <c r="C1216" s="18" t="s">
+      <c r="C1216" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1216" s="27">
@@ -18087,7 +18087,7 @@
       <c r="B1218" s="25">
         <v>2</v>
       </c>
-      <c r="C1218" s="18" t="s">
+      <c r="C1218" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1218" s="27">
@@ -18115,7 +18115,7 @@
       <c r="B1220" s="25">
         <v>3</v>
       </c>
-      <c r="C1220" s="18" t="s">
+      <c r="C1220" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1220" s="27">
@@ -18143,7 +18143,7 @@
       <c r="B1222" s="25">
         <v>4</v>
       </c>
-      <c r="C1222" s="18" t="s">
+      <c r="C1222" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1222" s="27">
@@ -18171,7 +18171,7 @@
       <c r="B1224" s="25">
         <v>5</v>
       </c>
-      <c r="C1224" s="18" t="s">
+      <c r="C1224" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1224" s="27">
@@ -18199,7 +18199,7 @@
       <c r="B1226" s="25">
         <v>6</v>
       </c>
-      <c r="C1226" s="18" t="s">
+      <c r="C1226" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1226" s="27">
@@ -18255,7 +18255,7 @@
       <c r="B1230" s="25">
         <v>7</v>
       </c>
-      <c r="C1230" s="18" t="s">
+      <c r="C1230" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1230" s="31">
@@ -18311,7 +18311,7 @@
       <c r="B1234" s="25">
         <v>8</v>
       </c>
-      <c r="C1234" s="18" t="s">
+      <c r="C1234" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1234" s="27">
@@ -18367,7 +18367,7 @@
       <c r="B1238" s="25">
         <v>9</v>
       </c>
-      <c r="C1238" s="18" t="s">
+      <c r="C1238" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1238" s="27">
@@ -18407,7 +18407,7 @@
       <c r="B1241" s="25">
         <v>1</v>
       </c>
-      <c r="C1241" s="18" t="s">
+      <c r="C1241" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1241" s="27">
@@ -18435,7 +18435,7 @@
       <c r="B1243" s="25">
         <v>2</v>
       </c>
-      <c r="C1243" s="18" t="s">
+      <c r="C1243" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1243" s="27">
@@ -18463,7 +18463,7 @@
       <c r="B1245" s="25">
         <v>3</v>
       </c>
-      <c r="C1245" s="18" t="s">
+      <c r="C1245" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1245" s="27">
@@ -18491,7 +18491,7 @@
       <c r="B1247" s="25">
         <v>4</v>
       </c>
-      <c r="C1247" s="18" t="s">
+      <c r="C1247" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1247" s="27">
@@ -18519,7 +18519,7 @@
       <c r="B1249" s="25">
         <v>5</v>
       </c>
-      <c r="C1249" s="18" t="s">
+      <c r="C1249" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1249" s="27">
@@ -18547,7 +18547,7 @@
       <c r="B1251" s="25">
         <v>6</v>
       </c>
-      <c r="C1251" s="18" t="s">
+      <c r="C1251" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1251" s="27">
@@ -18603,7 +18603,7 @@
       <c r="B1255" s="25">
         <v>7</v>
       </c>
-      <c r="C1255" s="18" t="s">
+      <c r="C1255" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1255" s="27">
@@ -18659,7 +18659,7 @@
       <c r="B1259" s="18">
         <v>8</v>
       </c>
-      <c r="C1259" s="18" t="s">
+      <c r="C1259" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1259" s="27">
@@ -18715,7 +18715,7 @@
       <c r="B1263" s="18">
         <v>9</v>
       </c>
-      <c r="C1263" s="18" t="s">
+      <c r="C1263" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1263" s="27">
@@ -18741,7 +18741,7 @@
       <c r="B1265" s="25">
         <v>1</v>
       </c>
-      <c r="C1265" s="18" t="s">
+      <c r="C1265" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1265" s="27">
@@ -18755,7 +18755,7 @@
       <c r="B1266" s="18">
         <v>2</v>
       </c>
-      <c r="C1266" s="18" t="s">
+      <c r="C1266" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1266" s="27">
@@ -18769,7 +18769,7 @@
       <c r="B1267" s="25">
         <v>3</v>
       </c>
-      <c r="C1267" s="18" t="s">
+      <c r="C1267" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1267" s="27">
@@ -18783,7 +18783,7 @@
       <c r="B1268" s="18">
         <v>4</v>
       </c>
-      <c r="C1268" s="18" t="s">
+      <c r="C1268" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1268" s="27">
@@ -18797,7 +18797,7 @@
       <c r="B1269" s="25">
         <v>5</v>
       </c>
-      <c r="C1269" s="18" t="s">
+      <c r="C1269" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1269" s="27">
@@ -18811,7 +18811,7 @@
       <c r="B1270" s="18">
         <v>6</v>
       </c>
-      <c r="C1270" s="18" t="s">
+      <c r="C1270" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1270" s="27">
@@ -18825,7 +18825,7 @@
       <c r="B1271" s="25">
         <v>7</v>
       </c>
-      <c r="C1271" s="18" t="s">
+      <c r="C1271" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1271" s="27">
@@ -18839,7 +18839,7 @@
       <c r="B1272" s="25">
         <v>8</v>
       </c>
-      <c r="C1272" s="18" t="s">
+      <c r="C1272" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1272" s="27">
@@ -18853,7 +18853,7 @@
       <c r="B1273" s="18">
         <v>9</v>
       </c>
-      <c r="C1273" s="18" t="s">
+      <c r="C1273" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1273" s="27">
@@ -18893,7 +18893,7 @@
       <c r="B1276" s="18">
         <v>1</v>
       </c>
-      <c r="C1276" s="18" t="s">
+      <c r="C1276" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1276" s="27">
@@ -18921,7 +18921,7 @@
       <c r="B1278" s="25">
         <v>2</v>
       </c>
-      <c r="C1278" s="18" t="s">
+      <c r="C1278" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1278" s="27">
@@ -18949,7 +18949,7 @@
       <c r="B1280" s="25">
         <v>3</v>
       </c>
-      <c r="C1280" s="18" t="s">
+      <c r="C1280" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1280" s="27">
@@ -18977,7 +18977,7 @@
       <c r="B1282" s="25">
         <v>4</v>
       </c>
-      <c r="C1282" s="18" t="s">
+      <c r="C1282" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1282" s="27">
@@ -19005,7 +19005,7 @@
       <c r="B1284" s="18">
         <v>5</v>
       </c>
-      <c r="C1284" s="18" t="s">
+      <c r="C1284" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1284" s="27">
@@ -19033,7 +19033,7 @@
       <c r="B1286" s="18">
         <v>6</v>
       </c>
-      <c r="C1286" s="18" t="s">
+      <c r="C1286" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1286" s="27">
@@ -19089,7 +19089,7 @@
       <c r="B1290" s="18">
         <v>7</v>
       </c>
-      <c r="C1290" s="18" t="s">
+      <c r="C1290" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1290" s="27">
@@ -19145,7 +19145,7 @@
       <c r="B1294" s="25">
         <v>8</v>
       </c>
-      <c r="C1294" s="18" t="s">
+      <c r="C1294" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1294" s="27">
@@ -19201,7 +19201,7 @@
       <c r="B1298" s="25">
         <v>9</v>
       </c>
-      <c r="C1298" s="18" t="s">
+      <c r="C1298" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1298" s="27">
@@ -19241,7 +19241,7 @@
       <c r="B1301" s="25">
         <v>1</v>
       </c>
-      <c r="C1301" s="18" t="s">
+      <c r="C1301" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1301" s="27">
@@ -19269,7 +19269,7 @@
       <c r="B1303" s="18">
         <v>2</v>
       </c>
-      <c r="C1303" s="18" t="s">
+      <c r="C1303" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1303" s="27">
@@ -19297,7 +19297,7 @@
       <c r="B1305" s="18">
         <v>3</v>
       </c>
-      <c r="C1305" s="18" t="s">
+      <c r="C1305" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1305" s="27">
@@ -19325,7 +19325,7 @@
       <c r="B1307" s="18">
         <v>4</v>
       </c>
-      <c r="C1307" s="18" t="s">
+      <c r="C1307" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1307" s="27">
@@ -19353,7 +19353,7 @@
       <c r="B1309" s="18">
         <v>5</v>
       </c>
-      <c r="C1309" s="18" t="s">
+      <c r="C1309" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1309" s="27">
@@ -19381,7 +19381,7 @@
       <c r="B1311" s="18">
         <v>6</v>
       </c>
-      <c r="C1311" s="18" t="s">
+      <c r="C1311" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1311" s="27">
@@ -19437,7 +19437,7 @@
       <c r="B1315" s="18">
         <v>7</v>
       </c>
-      <c r="C1315" s="18" t="s">
+      <c r="C1315" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1315" s="27">
@@ -19493,7 +19493,7 @@
       <c r="B1319" s="18">
         <v>8</v>
       </c>
-      <c r="C1319" s="18" t="s">
+      <c r="C1319" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1319" s="27">
@@ -19549,7 +19549,7 @@
       <c r="B1323" s="25">
         <v>9</v>
       </c>
-      <c r="C1323" s="18" t="s">
+      <c r="C1323" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1323" s="27">
@@ -19799,7 +19799,7 @@
       <c r="B1341" s="25">
         <v>1</v>
       </c>
-      <c r="C1341" s="18" t="s">
+      <c r="C1341" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1341" s="27">
@@ -19827,7 +19827,7 @@
       <c r="B1343" s="18">
         <v>2</v>
       </c>
-      <c r="C1343" s="18" t="s">
+      <c r="C1343" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1343" s="27">
@@ -19855,7 +19855,7 @@
       <c r="B1345" s="25">
         <v>3</v>
       </c>
-      <c r="C1345" s="18" t="s">
+      <c r="C1345" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1345" s="27">
@@ -19883,7 +19883,7 @@
       <c r="B1347" s="25">
         <v>4</v>
       </c>
-      <c r="C1347" s="18" t="s">
+      <c r="C1347" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1347" s="27">
@@ -19911,7 +19911,7 @@
       <c r="B1349" s="25">
         <v>5</v>
       </c>
-      <c r="C1349" s="18" t="s">
+      <c r="C1349" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1349" s="27">
@@ -19939,7 +19939,7 @@
       <c r="B1351" s="32">
         <v>6</v>
       </c>
-      <c r="C1351" s="18" t="s">
+      <c r="C1351" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1351" s="31">
@@ -19995,7 +19995,7 @@
       <c r="B1355" s="32">
         <v>7</v>
       </c>
-      <c r="C1355" s="18" t="s">
+      <c r="C1355" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1355" s="31">
@@ -20051,7 +20051,7 @@
       <c r="B1359" s="32">
         <v>8</v>
       </c>
-      <c r="C1359" s="18" t="s">
+      <c r="C1359" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1359" s="31">
@@ -20107,7 +20107,7 @@
       <c r="B1363" s="32">
         <v>9</v>
       </c>
-      <c r="C1363" s="18" t="s">
+      <c r="C1363" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1363" s="31">
@@ -20175,7 +20175,7 @@
       <c r="B1368" s="18">
         <v>3</v>
       </c>
-      <c r="C1368" s="18" t="s">
+      <c r="C1368" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1368" s="31">
@@ -20217,7 +20217,7 @@
       <c r="B1371" s="32">
         <v>5</v>
       </c>
-      <c r="C1371" s="18" t="s">
+      <c r="C1371" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1371" s="31">
@@ -20245,7 +20245,7 @@
       <c r="B1373" s="32">
         <v>6</v>
       </c>
-      <c r="C1373" s="18" t="s">
+      <c r="C1373" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1373" s="31">
@@ -20301,7 +20301,7 @@
       <c r="B1377" s="32">
         <v>7</v>
       </c>
-      <c r="C1377" s="18" t="s">
+      <c r="C1377" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1377" s="31">
@@ -20343,7 +20343,7 @@
       <c r="B1380" s="18">
         <v>8</v>
       </c>
-      <c r="C1380" s="18" t="s">
+      <c r="C1380" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1380" s="31">
@@ -20385,7 +20385,7 @@
       <c r="B1383" s="32">
         <v>9</v>
       </c>
-      <c r="C1383" s="18" t="s">
+      <c r="C1383" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1383" s="31">
@@ -20425,7 +20425,7 @@
       <c r="B1386" s="18">
         <v>1</v>
       </c>
-      <c r="C1386" s="18" t="s">
+      <c r="C1386" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1386" s="31">
@@ -20467,7 +20467,7 @@
       <c r="B1389" s="32">
         <v>3</v>
       </c>
-      <c r="C1389" s="18" t="s">
+      <c r="C1389" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1389" s="31">
@@ -20495,7 +20495,7 @@
       <c r="B1391" s="32">
         <v>4</v>
       </c>
-      <c r="C1391" s="18" t="s">
+      <c r="C1391" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1391" s="31">
@@ -20523,7 +20523,7 @@
       <c r="B1393" s="32">
         <v>5</v>
       </c>
-      <c r="C1393" s="18" t="s">
+      <c r="C1393" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1393" s="31">
@@ -20551,7 +20551,7 @@
       <c r="B1395" s="18">
         <v>6</v>
       </c>
-      <c r="C1395" s="18" t="s">
+      <c r="C1395" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1395" s="31">
@@ -20607,7 +20607,7 @@
       <c r="B1399" s="18">
         <v>7</v>
       </c>
-      <c r="C1399" s="18" t="s">
+      <c r="C1399" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1399" s="31">
@@ -20663,7 +20663,7 @@
       <c r="B1403" s="18">
         <v>8</v>
       </c>
-      <c r="C1403" s="18" t="s">
+      <c r="C1403" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1403" s="31">
@@ -20719,7 +20719,7 @@
       <c r="B1407" s="18">
         <v>9</v>
       </c>
-      <c r="C1407" s="18" t="s">
+      <c r="C1407" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1407" s="31">
@@ -20759,7 +20759,7 @@
       <c r="B1410" s="32">
         <v>1</v>
       </c>
-      <c r="C1410" s="18" t="s">
+      <c r="C1410" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1410" s="31">
@@ -20787,7 +20787,7 @@
       <c r="B1412" s="32">
         <v>2</v>
       </c>
-      <c r="C1412" s="18" t="s">
+      <c r="C1412" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1412" s="31">
@@ -20815,7 +20815,7 @@
       <c r="B1414" s="32">
         <v>3</v>
       </c>
-      <c r="C1414" s="18" t="s">
+      <c r="C1414" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1414" s="31">
@@ -20843,7 +20843,7 @@
       <c r="B1416" s="32">
         <v>4</v>
       </c>
-      <c r="C1416" s="18" t="s">
+      <c r="C1416" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1416" s="31">
@@ -20871,7 +20871,7 @@
       <c r="B1418" s="32">
         <v>5</v>
       </c>
-      <c r="C1418" s="18" t="s">
+      <c r="C1418" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1418" s="31">
@@ -20899,7 +20899,7 @@
       <c r="B1420" s="32">
         <v>6</v>
       </c>
-      <c r="C1420" s="18" t="s">
+      <c r="C1420" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1420" s="31">
@@ -20955,7 +20955,7 @@
       <c r="B1424" s="32">
         <v>7</v>
       </c>
-      <c r="C1424" s="18" t="s">
+      <c r="C1424" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1424" s="31">
@@ -21011,7 +21011,7 @@
       <c r="B1428" s="18">
         <v>8</v>
       </c>
-      <c r="C1428" s="18" t="s">
+      <c r="C1428" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1428" s="31">
@@ -21067,7 +21067,7 @@
       <c r="B1432" s="18">
         <v>9</v>
       </c>
-      <c r="C1432" s="18" t="s">
+      <c r="C1432" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1432" s="31">
@@ -21401,7 +21401,7 @@
       <c r="B1456" s="18">
         <v>1</v>
       </c>
-      <c r="C1456" s="18" t="s">
+      <c r="C1456" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1456" s="31">
@@ -21429,7 +21429,7 @@
       <c r="B1458" s="18">
         <v>2</v>
       </c>
-      <c r="C1458" s="18" t="s">
+      <c r="C1458" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1458" s="31">
@@ -21457,7 +21457,7 @@
       <c r="B1460" s="18">
         <v>3</v>
       </c>
-      <c r="C1460" s="18" t="s">
+      <c r="C1460" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1460" s="31">
@@ -21485,7 +21485,7 @@
       <c r="B1462" s="18">
         <v>4</v>
       </c>
-      <c r="C1462" s="18" t="s">
+      <c r="C1462" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1462" s="31">
@@ -21513,7 +21513,7 @@
       <c r="B1464" s="18">
         <v>5</v>
       </c>
-      <c r="C1464" s="18" t="s">
+      <c r="C1464" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1464" s="31">
@@ -21541,7 +21541,7 @@
       <c r="B1466" s="18">
         <v>6</v>
       </c>
-      <c r="C1466" s="18" t="s">
+      <c r="C1466" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1466" s="31">
@@ -21597,7 +21597,7 @@
       <c r="B1470" s="18">
         <v>7</v>
       </c>
-      <c r="C1470" s="18" t="s">
+      <c r="C1470" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1470" s="31">
@@ -21653,7 +21653,7 @@
       <c r="B1474" s="32">
         <v>8</v>
       </c>
-      <c r="C1474" s="18" t="s">
+      <c r="C1474" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1474" s="31">
@@ -21709,7 +21709,7 @@
       <c r="B1478" s="18">
         <v>9</v>
       </c>
-      <c r="C1478" s="18" t="s">
+      <c r="C1478" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1478" s="31">
@@ -22155,7 +22155,7 @@
       <c r="B1510" s="32">
         <v>1</v>
       </c>
-      <c r="C1510" s="18" t="s">
+      <c r="C1510" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1510" s="31">
@@ -22169,7 +22169,7 @@
       <c r="B1511" s="18">
         <v>2</v>
       </c>
-      <c r="C1511" s="18" t="s">
+      <c r="C1511" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1511" s="31">
@@ -22183,7 +22183,7 @@
       <c r="B1512" s="32">
         <v>3</v>
       </c>
-      <c r="C1512" s="18" t="s">
+      <c r="C1512" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1512" s="31">
@@ -22197,7 +22197,7 @@
       <c r="B1513" s="18">
         <v>4</v>
       </c>
-      <c r="C1513" s="18" t="s">
+      <c r="C1513" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1513" s="31">
@@ -22211,7 +22211,7 @@
       <c r="B1514" s="32">
         <v>5</v>
       </c>
-      <c r="C1514" s="18" t="s">
+      <c r="C1514" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1514" s="31">
@@ -22225,7 +22225,7 @@
       <c r="B1515" s="18">
         <v>6</v>
       </c>
-      <c r="C1515" s="18" t="s">
+      <c r="C1515" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1515" s="31">
@@ -22239,7 +22239,7 @@
       <c r="B1516" s="32">
         <v>7</v>
       </c>
-      <c r="C1516" s="18" t="s">
+      <c r="C1516" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1516" s="31">
@@ -22253,7 +22253,7 @@
       <c r="B1517" s="18">
         <v>8</v>
       </c>
-      <c r="C1517" s="18" t="s">
+      <c r="C1517" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1517" s="31">
@@ -22267,7 +22267,7 @@
       <c r="B1518" s="32">
         <v>9</v>
       </c>
-      <c r="C1518" s="18" t="s">
+      <c r="C1518" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1518" s="31">
@@ -22293,7 +22293,7 @@
       <c r="B1520" s="32">
         <v>1</v>
       </c>
-      <c r="C1520" s="18" t="s">
+      <c r="C1520" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1520" s="31">
@@ -22307,7 +22307,7 @@
       <c r="B1521" s="18">
         <v>3</v>
       </c>
-      <c r="C1521" s="18" t="s">
+      <c r="C1521" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1521" s="31">
@@ -22321,7 +22321,7 @@
       <c r="B1522" s="32">
         <v>4</v>
       </c>
-      <c r="C1522" s="18" t="s">
+      <c r="C1522" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1522" s="31">
@@ -22335,7 +22335,7 @@
       <c r="B1523" s="18">
         <v>5</v>
       </c>
-      <c r="C1523" s="18" t="s">
+      <c r="C1523" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1523" s="31">
@@ -22349,7 +22349,7 @@
       <c r="B1524" s="32">
         <v>6</v>
       </c>
-      <c r="C1524" s="18" t="s">
+      <c r="C1524" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1524" s="31">
@@ -22363,7 +22363,7 @@
       <c r="B1525" s="18">
         <v>7</v>
       </c>
-      <c r="C1525" s="18" t="s">
+      <c r="C1525" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1525" s="31">
@@ -22377,7 +22377,7 @@
       <c r="B1526" s="32">
         <v>8</v>
       </c>
-      <c r="C1526" s="18" t="s">
+      <c r="C1526" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1526" s="31">
@@ -22391,7 +22391,7 @@
       <c r="B1527" s="18">
         <v>9</v>
       </c>
-      <c r="C1527" s="18" t="s">
+      <c r="C1527" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1527" s="31">
@@ -22417,7 +22417,7 @@
       <c r="B1529" s="18">
         <v>1</v>
       </c>
-      <c r="C1529" s="18" t="s">
+      <c r="C1529" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1529" s="31">
@@ -22431,7 +22431,7 @@
       <c r="B1530" s="32">
         <v>2</v>
       </c>
-      <c r="C1530" s="18" t="s">
+      <c r="C1530" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1530" s="31">
@@ -22445,7 +22445,7 @@
       <c r="B1531" s="18">
         <v>3</v>
       </c>
-      <c r="C1531" s="18" t="s">
+      <c r="C1531" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1531" s="31">
@@ -22459,7 +22459,7 @@
       <c r="B1532" s="32">
         <v>4</v>
       </c>
-      <c r="C1532" s="18" t="s">
+      <c r="C1532" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1532" s="31">
@@ -22473,7 +22473,7 @@
       <c r="B1533" s="18">
         <v>5</v>
       </c>
-      <c r="C1533" s="18" t="s">
+      <c r="C1533" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1533" s="31">
@@ -22487,7 +22487,7 @@
       <c r="B1534" s="32">
         <v>6</v>
       </c>
-      <c r="C1534" s="18" t="s">
+      <c r="C1534" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1534" s="31">
@@ -22501,7 +22501,7 @@
       <c r="B1535" s="18">
         <v>7</v>
       </c>
-      <c r="C1535" s="18" t="s">
+      <c r="C1535" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1535" s="31">
@@ -22515,7 +22515,7 @@
       <c r="B1536" s="32">
         <v>8</v>
       </c>
-      <c r="C1536" s="18" t="s">
+      <c r="C1536" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1536" s="31">
@@ -22529,7 +22529,7 @@
       <c r="B1537" s="18">
         <v>9</v>
       </c>
-      <c r="C1537" s="18" t="s">
+      <c r="C1537" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1537" s="31">
@@ -22569,7 +22569,7 @@
       <c r="B1540" s="32">
         <v>1</v>
       </c>
-      <c r="C1540" s="18" t="s">
+      <c r="C1540" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1540" s="31">
@@ -22597,7 +22597,7 @@
       <c r="B1542" s="32">
         <v>2</v>
       </c>
-      <c r="C1542" s="18" t="s">
+      <c r="C1542" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1542" s="31">
@@ -22625,7 +22625,7 @@
       <c r="B1544" s="32">
         <v>3</v>
       </c>
-      <c r="C1544" s="18" t="s">
+      <c r="C1544" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1544" s="31">
@@ -22653,7 +22653,7 @@
       <c r="B1546" s="32">
         <v>4</v>
       </c>
-      <c r="C1546" s="18" t="s">
+      <c r="C1546" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1546" s="31">
@@ -22681,7 +22681,7 @@
       <c r="B1548" s="32">
         <v>5</v>
       </c>
-      <c r="C1548" s="18" t="s">
+      <c r="C1548" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1548" s="31">
@@ -22709,7 +22709,7 @@
       <c r="B1550" s="32">
         <v>6</v>
       </c>
-      <c r="C1550" s="18" t="s">
+      <c r="C1550" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1550" s="31">
@@ -22765,7 +22765,7 @@
       <c r="B1554" s="32">
         <v>7</v>
       </c>
-      <c r="C1554" s="18" t="s">
+      <c r="C1554" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1554" s="31">
@@ -22821,7 +22821,7 @@
       <c r="B1558" s="32">
         <v>8</v>
       </c>
-      <c r="C1558" s="18" t="s">
+      <c r="C1558" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1558" s="31">
@@ -22877,7 +22877,7 @@
       <c r="B1562" s="18">
         <v>9</v>
       </c>
-      <c r="C1562" s="18" t="s">
+      <c r="C1562" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1562" s="31">
@@ -23113,7 +23113,7 @@
       <c r="B1579" s="32">
         <v>1</v>
       </c>
-      <c r="C1579" s="18" t="s">
+      <c r="C1579" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1579" s="31">
@@ -23127,7 +23127,7 @@
       <c r="B1580" s="18">
         <v>2</v>
       </c>
-      <c r="C1580" s="18" t="s">
+      <c r="C1580" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1580" s="31">
@@ -23141,7 +23141,7 @@
       <c r="B1581" s="32">
         <v>3</v>
       </c>
-      <c r="C1581" s="18" t="s">
+      <c r="C1581" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1581" s="31">
@@ -23155,7 +23155,7 @@
       <c r="B1582" s="18">
         <v>4</v>
       </c>
-      <c r="C1582" s="18" t="s">
+      <c r="C1582" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1582" s="31">
@@ -23169,7 +23169,7 @@
       <c r="B1583" s="32">
         <v>5</v>
       </c>
-      <c r="C1583" s="18" t="s">
+      <c r="C1583" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1583" s="31">
@@ -23183,7 +23183,7 @@
       <c r="B1584" s="18">
         <v>6</v>
       </c>
-      <c r="C1584" s="18" t="s">
+      <c r="C1584" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1584" s="31">
@@ -23197,7 +23197,7 @@
       <c r="B1585" s="32">
         <v>7</v>
       </c>
-      <c r="C1585" s="18" t="s">
+      <c r="C1585" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1585" s="31">
@@ -23211,7 +23211,7 @@
       <c r="B1586" s="18">
         <v>8</v>
       </c>
-      <c r="C1586" s="18" t="s">
+      <c r="C1586" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1586" s="31">
@@ -23225,7 +23225,7 @@
       <c r="B1587" s="32">
         <v>9</v>
       </c>
-      <c r="C1587" s="18" t="s">
+      <c r="C1587" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1587" s="31">
@@ -23265,7 +23265,7 @@
       <c r="B1590" s="18">
         <v>1</v>
       </c>
-      <c r="C1590" s="18" t="s">
+      <c r="C1590" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1590" s="31">
@@ -23307,7 +23307,7 @@
       <c r="B1593" s="32">
         <v>3</v>
       </c>
-      <c r="C1593" s="18" t="s">
+      <c r="C1593" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1593" s="31">
@@ -23335,7 +23335,7 @@
       <c r="B1595" s="32">
         <v>4</v>
       </c>
-      <c r="C1595" s="18" t="s">
+      <c r="C1595" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1595" s="31">
@@ -23363,7 +23363,7 @@
       <c r="B1597" s="32">
         <v>5</v>
       </c>
-      <c r="C1597" s="18" t="s">
+      <c r="C1597" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1597" s="31">
@@ -23391,7 +23391,7 @@
       <c r="B1599" s="32">
         <v>6</v>
       </c>
-      <c r="C1599" s="18" t="s">
+      <c r="C1599" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1599" s="31">
@@ -23447,7 +23447,7 @@
       <c r="B1603" s="32">
         <v>7</v>
       </c>
-      <c r="C1603" s="18" t="s">
+      <c r="C1603" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1603" s="31">
@@ -23503,7 +23503,7 @@
       <c r="B1607" s="32">
         <v>8</v>
       </c>
-      <c r="C1607" s="18" t="s">
+      <c r="C1607" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1607" s="31">
@@ -23559,7 +23559,7 @@
       <c r="B1611" s="18">
         <v>9</v>
       </c>
-      <c r="C1611" s="18" t="s">
+      <c r="C1611" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1611" s="31">
@@ -23585,7 +23585,7 @@
       <c r="B1613" s="18">
         <v>1</v>
       </c>
-      <c r="C1613" s="18" t="s">
+      <c r="C1613" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1613" s="31">
@@ -23599,7 +23599,7 @@
       <c r="B1614" s="32">
         <v>2</v>
       </c>
-      <c r="C1614" s="18" t="s">
+      <c r="C1614" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1614" s="31">
@@ -23613,7 +23613,7 @@
       <c r="B1615" s="18">
         <v>3</v>
       </c>
-      <c r="C1615" s="18" t="s">
+      <c r="C1615" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1615" s="31">
@@ -23627,7 +23627,7 @@
       <c r="B1616" s="32">
         <v>4</v>
       </c>
-      <c r="C1616" s="18" t="s">
+      <c r="C1616" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1616" s="31">
@@ -23641,7 +23641,7 @@
       <c r="B1617" s="18">
         <v>5</v>
       </c>
-      <c r="C1617" s="18" t="s">
+      <c r="C1617" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1617" s="31">
@@ -23655,7 +23655,7 @@
       <c r="B1618" s="32">
         <v>6</v>
       </c>
-      <c r="C1618" s="18" t="s">
+      <c r="C1618" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1618" s="31">
@@ -23669,7 +23669,7 @@
       <c r="B1619" s="18">
         <v>7</v>
       </c>
-      <c r="C1619" s="18" t="s">
+      <c r="C1619" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1619" s="31">
@@ -23683,7 +23683,7 @@
       <c r="B1620" s="32">
         <v>8</v>
       </c>
-      <c r="C1620" s="18" t="s">
+      <c r="C1620" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1620" s="31">
@@ -23697,7 +23697,7 @@
       <c r="B1621" s="18">
         <v>9</v>
       </c>
-      <c r="C1621" s="18" t="s">
+      <c r="C1621" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1621" s="31">
@@ -23737,7 +23737,7 @@
       <c r="B1624" s="32">
         <v>1</v>
       </c>
-      <c r="C1624" s="18" t="s">
+      <c r="C1624" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1624" s="31">
@@ -23765,7 +23765,7 @@
       <c r="B1626" s="32">
         <v>2</v>
       </c>
-      <c r="C1626" s="18" t="s">
+      <c r="C1626" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1626" s="31">
@@ -23793,7 +23793,7 @@
       <c r="B1628" s="32">
         <v>3</v>
       </c>
-      <c r="C1628" s="18" t="s">
+      <c r="C1628" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1628" s="31">
@@ -23821,7 +23821,7 @@
       <c r="B1630" s="32">
         <v>4</v>
       </c>
-      <c r="C1630" s="18" t="s">
+      <c r="C1630" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1630" s="31">
@@ -23849,7 +23849,7 @@
       <c r="B1632" s="32">
         <v>5</v>
       </c>
-      <c r="C1632" s="18" t="s">
+      <c r="C1632" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1632" s="31">
@@ -23877,7 +23877,7 @@
       <c r="B1634" s="32">
         <v>6</v>
       </c>
-      <c r="C1634" s="18" t="s">
+      <c r="C1634" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1634" s="31">
@@ -23933,7 +23933,7 @@
       <c r="B1638" s="18">
         <v>7</v>
       </c>
-      <c r="C1638" s="18" t="s">
+      <c r="C1638" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1638" s="31">
@@ -23989,7 +23989,7 @@
       <c r="B1642" s="18">
         <v>8</v>
       </c>
-      <c r="C1642" s="18" t="s">
+      <c r="C1642" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1642" s="31">
@@ -24045,7 +24045,7 @@
       <c r="B1646" s="18">
         <v>9</v>
       </c>
-      <c r="C1646" s="18" t="s">
+      <c r="C1646" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1646" s="31">
@@ -24071,7 +24071,7 @@
       <c r="B1648" s="18">
         <v>1</v>
       </c>
-      <c r="C1648" s="18" t="s">
+      <c r="C1648" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1648" s="31">
@@ -24085,7 +24085,7 @@
       <c r="B1649" s="32">
         <v>3</v>
       </c>
-      <c r="C1649" s="18" t="s">
+      <c r="C1649" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1649" s="31">
@@ -24099,7 +24099,7 @@
       <c r="B1650" s="18">
         <v>4</v>
       </c>
-      <c r="C1650" s="18" t="s">
+      <c r="C1650" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1650" s="31">
@@ -24113,7 +24113,7 @@
       <c r="B1651" s="32">
         <v>5</v>
       </c>
-      <c r="C1651" s="18" t="s">
+      <c r="C1651" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1651" s="31">
@@ -24127,7 +24127,7 @@
       <c r="B1652" s="18">
         <v>6</v>
       </c>
-      <c r="C1652" s="18" t="s">
+      <c r="C1652" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1652" s="31">
@@ -24141,7 +24141,7 @@
       <c r="B1653" s="32">
         <v>7</v>
       </c>
-      <c r="C1653" s="18" t="s">
+      <c r="C1653" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1653" s="31">
@@ -24155,7 +24155,7 @@
       <c r="B1654" s="18">
         <v>8</v>
       </c>
-      <c r="C1654" s="18" t="s">
+      <c r="C1654" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1654" s="31">
@@ -24169,7 +24169,7 @@
       <c r="B1655" s="32">
         <v>9</v>
       </c>
-      <c r="C1655" s="18" t="s">
+      <c r="C1655" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1655" s="31">
@@ -24195,7 +24195,7 @@
       <c r="B1657" s="32">
         <v>1</v>
       </c>
-      <c r="C1657" s="18" t="s">
+      <c r="C1657" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1657" s="31">
@@ -24209,7 +24209,7 @@
       <c r="B1658" s="18">
         <v>2</v>
       </c>
-      <c r="C1658" s="18" t="s">
+      <c r="C1658" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1658" s="31">
@@ -24223,7 +24223,7 @@
       <c r="B1659" s="32">
         <v>3</v>
       </c>
-      <c r="C1659" s="18" t="s">
+      <c r="C1659" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1659" s="31">
@@ -24237,7 +24237,7 @@
       <c r="B1660" s="18">
         <v>4</v>
       </c>
-      <c r="C1660" s="18" t="s">
+      <c r="C1660" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1660" s="31">
@@ -24251,7 +24251,7 @@
       <c r="B1661" s="32">
         <v>5</v>
       </c>
-      <c r="C1661" s="18" t="s">
+      <c r="C1661" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1661" s="31">
@@ -24265,7 +24265,7 @@
       <c r="B1662" s="18">
         <v>6</v>
       </c>
-      <c r="C1662" s="18" t="s">
+      <c r="C1662" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1662" s="31">
@@ -24279,7 +24279,7 @@
       <c r="B1663" s="32">
         <v>7</v>
       </c>
-      <c r="C1663" s="18" t="s">
+      <c r="C1663" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1663" s="31">
@@ -24293,7 +24293,7 @@
       <c r="B1664" s="18">
         <v>8</v>
       </c>
-      <c r="C1664" s="18" t="s">
+      <c r="C1664" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1664" s="31">
@@ -24307,7 +24307,7 @@
       <c r="B1665" s="32">
         <v>9</v>
       </c>
-      <c r="C1665" s="18" t="s">
+      <c r="C1665" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1665" s="31">
@@ -24347,7 +24347,7 @@
       <c r="B1668" s="18">
         <v>1</v>
       </c>
-      <c r="C1668" s="18" t="s">
+      <c r="C1668" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1668" s="31">
@@ -24375,7 +24375,7 @@
       <c r="B1670" s="18">
         <v>2</v>
       </c>
-      <c r="C1670" s="18" t="s">
+      <c r="C1670" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1670" s="31">
@@ -24403,7 +24403,7 @@
       <c r="B1672" s="18">
         <v>3</v>
       </c>
-      <c r="C1672" s="18" t="s">
+      <c r="C1672" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1672" s="31">
@@ -24431,7 +24431,7 @@
       <c r="B1674" s="18">
         <v>4</v>
       </c>
-      <c r="C1674" s="18" t="s">
+      <c r="C1674" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1674" s="31">
@@ -24459,7 +24459,7 @@
       <c r="B1676" s="18">
         <v>5</v>
       </c>
-      <c r="C1676" s="18" t="s">
+      <c r="C1676" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1676" s="31">
@@ -24487,7 +24487,7 @@
       <c r="B1678" s="18">
         <v>6</v>
       </c>
-      <c r="C1678" s="18" t="s">
+      <c r="C1678" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1678" s="31">
@@ -24543,7 +24543,7 @@
       <c r="B1682" s="18">
         <v>7</v>
       </c>
-      <c r="C1682" s="18" t="s">
+      <c r="C1682" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1682" s="31">
@@ -24599,7 +24599,7 @@
       <c r="B1686" s="18">
         <v>8</v>
       </c>
-      <c r="C1686" s="18" t="s">
+      <c r="C1686" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1686" s="31">
@@ -24655,7 +24655,7 @@
       <c r="B1690" s="18">
         <v>9</v>
       </c>
-      <c r="C1690" s="18" t="s">
+      <c r="C1690" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1690" s="31">
@@ -24681,7 +24681,7 @@
       <c r="B1692" s="18">
         <v>1</v>
       </c>
-      <c r="C1692" s="18" t="s">
+      <c r="C1692" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1692" s="31">
@@ -24695,7 +24695,7 @@
       <c r="B1693" s="32">
         <v>2</v>
       </c>
-      <c r="C1693" s="18" t="s">
+      <c r="C1693" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1693" s="31">
@@ -24709,7 +24709,7 @@
       <c r="B1694" s="18">
         <v>3</v>
       </c>
-      <c r="C1694" s="18" t="s">
+      <c r="C1694" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1694" s="31">
@@ -24723,7 +24723,7 @@
       <c r="B1695" s="32">
         <v>4</v>
       </c>
-      <c r="C1695" s="18" t="s">
+      <c r="C1695" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1695" s="31">
@@ -24737,7 +24737,7 @@
       <c r="B1696" s="18">
         <v>5</v>
       </c>
-      <c r="C1696" s="18" t="s">
+      <c r="C1696" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1696" s="31">
@@ -24751,7 +24751,7 @@
       <c r="B1697" s="32">
         <v>6</v>
       </c>
-      <c r="C1697" s="18" t="s">
+      <c r="C1697" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1697" s="31">
@@ -24765,7 +24765,7 @@
       <c r="B1698" s="18">
         <v>7</v>
       </c>
-      <c r="C1698" s="18" t="s">
+      <c r="C1698" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1698" s="31">
@@ -24779,7 +24779,7 @@
       <c r="B1699" s="32">
         <v>8</v>
       </c>
-      <c r="C1699" s="18" t="s">
+      <c r="C1699" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1699" s="31">
@@ -24793,7 +24793,7 @@
       <c r="B1700" s="18">
         <v>9</v>
       </c>
-      <c r="C1700" s="18" t="s">
+      <c r="C1700" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1700" s="31">
@@ -24819,7 +24819,7 @@
       <c r="B1702" s="18">
         <v>1</v>
       </c>
-      <c r="C1702" s="18" t="s">
+      <c r="C1702" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1702" s="31">
@@ -24833,7 +24833,7 @@
       <c r="B1703" s="32">
         <v>2</v>
       </c>
-      <c r="C1703" s="18" t="s">
+      <c r="C1703" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1703" s="31">
@@ -24847,7 +24847,7 @@
       <c r="B1704" s="18">
         <v>3</v>
       </c>
-      <c r="C1704" s="18" t="s">
+      <c r="C1704" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1704" s="31">
@@ -24861,7 +24861,7 @@
       <c r="B1705" s="32">
         <v>4</v>
       </c>
-      <c r="C1705" s="18" t="s">
+      <c r="C1705" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1705" s="31">
@@ -24875,7 +24875,7 @@
       <c r="B1706" s="18">
         <v>5</v>
       </c>
-      <c r="C1706" s="18" t="s">
+      <c r="C1706" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1706" s="31">
@@ -24889,7 +24889,7 @@
       <c r="B1707" s="32">
         <v>6</v>
       </c>
-      <c r="C1707" s="18" t="s">
+      <c r="C1707" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1707" s="31">
@@ -24903,7 +24903,7 @@
       <c r="B1708" s="18">
         <v>7</v>
       </c>
-      <c r="C1708" s="18" t="s">
+      <c r="C1708" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1708" s="31">
@@ -24917,7 +24917,7 @@
       <c r="B1709" s="32">
         <v>8</v>
       </c>
-      <c r="C1709" s="18" t="s">
+      <c r="C1709" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1709" s="31">
@@ -24931,7 +24931,7 @@
       <c r="B1710" s="32">
         <v>9</v>
       </c>
-      <c r="C1710" s="18" t="s">
+      <c r="C1710" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1710" s="31">
@@ -24971,7 +24971,7 @@
       <c r="B1713" s="18">
         <v>1</v>
       </c>
-      <c r="C1713" s="18" t="s">
+      <c r="C1713" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1713" s="31">
@@ -24999,7 +24999,7 @@
       <c r="B1715" s="18">
         <v>2</v>
       </c>
-      <c r="C1715" s="18" t="s">
+      <c r="C1715" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1715" s="31">
@@ -25027,7 +25027,7 @@
       <c r="B1717" s="18">
         <v>3</v>
       </c>
-      <c r="C1717" s="18" t="s">
+      <c r="C1717" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1717" s="31">
@@ -25055,7 +25055,7 @@
       <c r="B1719" s="18">
         <v>4</v>
       </c>
-      <c r="C1719" s="18" t="s">
+      <c r="C1719" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1719" s="31">
@@ -25083,7 +25083,7 @@
       <c r="B1721" s="18">
         <v>5</v>
       </c>
-      <c r="C1721" s="18" t="s">
+      <c r="C1721" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1721" s="31">
@@ -25111,7 +25111,7 @@
       <c r="B1723" s="18">
         <v>6</v>
       </c>
-      <c r="C1723" s="18" t="s">
+      <c r="C1723" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1723" s="31">
@@ -25167,7 +25167,7 @@
       <c r="B1727" s="18">
         <v>7</v>
       </c>
-      <c r="C1727" s="18" t="s">
+      <c r="C1727" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1727" s="31">
@@ -25223,7 +25223,7 @@
       <c r="B1731" s="18">
         <v>8</v>
       </c>
-      <c r="C1731" s="18" t="s">
+      <c r="C1731" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1731" s="31">
@@ -25279,7 +25279,7 @@
       <c r="B1735" s="18">
         <v>9</v>
       </c>
-      <c r="C1735" s="18" t="s">
+      <c r="C1735" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1735" s="31">
@@ -25305,7 +25305,7 @@
       <c r="B1737" s="18">
         <v>1</v>
       </c>
-      <c r="C1737" s="18" t="s">
+      <c r="C1737" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1737" s="31">
@@ -25319,7 +25319,7 @@
       <c r="B1738" s="32">
         <v>3</v>
       </c>
-      <c r="C1738" s="18" t="s">
+      <c r="C1738" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1738" s="31">
@@ -25333,7 +25333,7 @@
       <c r="B1739" s="18">
         <v>4</v>
       </c>
-      <c r="C1739" s="18" t="s">
+      <c r="C1739" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1739" s="31">
@@ -25347,7 +25347,7 @@
       <c r="B1740" s="32">
         <v>5</v>
       </c>
-      <c r="C1740" s="18" t="s">
+      <c r="C1740" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1740" s="31">
@@ -25361,7 +25361,7 @@
       <c r="B1741" s="18">
         <v>6</v>
       </c>
-      <c r="C1741" s="18" t="s">
+      <c r="C1741" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1741" s="31">
@@ -25375,7 +25375,7 @@
       <c r="B1742" s="32">
         <v>7</v>
       </c>
-      <c r="C1742" s="18" t="s">
+      <c r="C1742" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1742" s="31">
@@ -25389,7 +25389,7 @@
       <c r="B1743" s="18">
         <v>8</v>
       </c>
-      <c r="C1743" s="18" t="s">
+      <c r="C1743" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1743" s="31">
@@ -25403,7 +25403,7 @@
       <c r="B1744" s="32">
         <v>9</v>
       </c>
-      <c r="C1744" s="18" t="s">
+      <c r="C1744" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1744" s="31">
@@ -25429,7 +25429,7 @@
       <c r="B1746" s="32">
         <v>1</v>
       </c>
-      <c r="C1746" s="18" t="s">
+      <c r="C1746" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1746" s="31">
@@ -25443,7 +25443,7 @@
       <c r="B1747" s="18">
         <v>2</v>
       </c>
-      <c r="C1747" s="18" t="s">
+      <c r="C1747" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1747" s="31">
@@ -25457,7 +25457,7 @@
       <c r="B1748" s="32">
         <v>3</v>
       </c>
-      <c r="C1748" s="18" t="s">
+      <c r="C1748" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1748" s="31">
@@ -25471,7 +25471,7 @@
       <c r="B1749" s="18">
         <v>4</v>
       </c>
-      <c r="C1749" s="18" t="s">
+      <c r="C1749" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1749" s="31">
@@ -25485,7 +25485,7 @@
       <c r="B1750" s="32">
         <v>5</v>
       </c>
-      <c r="C1750" s="18" t="s">
+      <c r="C1750" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1750" s="31">
@@ -25499,7 +25499,7 @@
       <c r="B1751" s="18">
         <v>6</v>
       </c>
-      <c r="C1751" s="18" t="s">
+      <c r="C1751" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1751" s="31">
@@ -25513,7 +25513,7 @@
       <c r="B1752" s="32">
         <v>7</v>
       </c>
-      <c r="C1752" s="18" t="s">
+      <c r="C1752" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1752" s="31">
@@ -25527,7 +25527,7 @@
       <c r="B1753" s="18">
         <v>8</v>
       </c>
-      <c r="C1753" s="18" t="s">
+      <c r="C1753" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1753" s="31">
@@ -25541,7 +25541,7 @@
       <c r="B1754" s="32">
         <v>9</v>
       </c>
-      <c r="C1754" s="18" t="s">
+      <c r="C1754" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1754" s="31">
@@ -25567,7 +25567,7 @@
       <c r="B1756" s="32">
         <v>1</v>
       </c>
-      <c r="C1756" s="18" t="s">
+      <c r="C1756" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1756" s="31">
@@ -25581,7 +25581,7 @@
       <c r="B1757" s="18">
         <v>2</v>
       </c>
-      <c r="C1757" s="18" t="s">
+      <c r="C1757" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1757" s="31">
@@ -25595,7 +25595,7 @@
       <c r="B1758" s="32">
         <v>3</v>
       </c>
-      <c r="C1758" s="18" t="s">
+      <c r="C1758" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1758" s="31">
@@ -25623,7 +25623,7 @@
       <c r="B1760" s="32">
         <v>4</v>
       </c>
-      <c r="C1760" s="18" t="s">
+      <c r="C1760" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1760" s="31">
@@ -25651,7 +25651,7 @@
       <c r="B1762" s="32">
         <v>5</v>
       </c>
-      <c r="C1762" s="18" t="s">
+      <c r="C1762" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1762" s="31">
@@ -25679,7 +25679,7 @@
       <c r="B1764" s="32">
         <v>6</v>
       </c>
-      <c r="C1764" s="18" t="s">
+      <c r="C1764" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1764" s="31">
@@ -25693,7 +25693,7 @@
       <c r="B1765" s="18">
         <v>7</v>
       </c>
-      <c r="C1765" s="18" t="s">
+      <c r="C1765" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1765" s="31">
@@ -25707,7 +25707,7 @@
       <c r="B1766" s="32">
         <v>8</v>
       </c>
-      <c r="C1766" s="18" t="s">
+      <c r="C1766" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1766" s="31">
@@ -25721,7 +25721,7 @@
       <c r="B1767" s="18">
         <v>9</v>
       </c>
-      <c r="C1767" s="18" t="s">
+      <c r="C1767" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1767" s="31">
@@ -25761,7 +25761,7 @@
       <c r="B1770" s="32">
         <v>1</v>
       </c>
-      <c r="C1770" s="18" t="s">
+      <c r="C1770" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1770" s="31">
@@ -25789,7 +25789,7 @@
       <c r="B1772" s="32">
         <v>2</v>
       </c>
-      <c r="C1772" s="18" t="s">
+      <c r="C1772" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1772" s="31">
@@ -25817,7 +25817,7 @@
       <c r="B1774" s="32">
         <v>3</v>
       </c>
-      <c r="C1774" s="18" t="s">
+      <c r="C1774" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1774" s="31">
@@ -25845,7 +25845,7 @@
       <c r="B1776" s="32">
         <v>4</v>
       </c>
-      <c r="C1776" s="18" t="s">
+      <c r="C1776" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1776" s="31">
@@ -25873,7 +25873,7 @@
       <c r="B1778" s="32">
         <v>5</v>
       </c>
-      <c r="C1778" s="18" t="s">
+      <c r="C1778" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1778" s="31">
@@ -25901,7 +25901,7 @@
       <c r="B1780" s="32">
         <v>6</v>
       </c>
-      <c r="C1780" s="18" t="s">
+      <c r="C1780" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1780" s="31">
@@ -25957,7 +25957,7 @@
       <c r="B1784" s="32">
         <v>7</v>
       </c>
-      <c r="C1784" s="18" t="s">
+      <c r="C1784" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1784" s="31">
@@ -26013,7 +26013,7 @@
       <c r="B1788" s="18">
         <v>8</v>
       </c>
-      <c r="C1788" s="18" t="s">
+      <c r="C1788" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1788" s="31">
@@ -26069,7 +26069,7 @@
       <c r="B1792" s="18">
         <v>9</v>
       </c>
-      <c r="C1792" s="18" t="s">
+      <c r="C1792" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1792" s="31">
@@ -26095,7 +26095,7 @@
       <c r="B1794" s="18">
         <v>1</v>
       </c>
-      <c r="C1794" s="18" t="s">
+      <c r="C1794" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1794" s="31">
@@ -26109,7 +26109,7 @@
       <c r="B1795" s="32">
         <v>2</v>
       </c>
-      <c r="C1795" s="18" t="s">
+      <c r="C1795" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1795" s="31">
@@ -26123,7 +26123,7 @@
       <c r="B1796" s="18">
         <v>3</v>
       </c>
-      <c r="C1796" s="18" t="s">
+      <c r="C1796" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1796" s="31">
@@ -26137,7 +26137,7 @@
       <c r="B1797" s="32">
         <v>4</v>
       </c>
-      <c r="C1797" s="18" t="s">
+      <c r="C1797" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1797" s="31">
@@ -26151,7 +26151,7 @@
       <c r="B1798" s="18">
         <v>5</v>
       </c>
-      <c r="C1798" s="18" t="s">
+      <c r="C1798" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1798" s="31">
@@ -26165,7 +26165,7 @@
       <c r="B1799" s="32">
         <v>6</v>
       </c>
-      <c r="C1799" s="18" t="s">
+      <c r="C1799" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1799" s="31">
@@ -26179,7 +26179,7 @@
       <c r="B1800" s="18">
         <v>7</v>
       </c>
-      <c r="C1800" s="18" t="s">
+      <c r="C1800" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1800" s="31">
@@ -26193,7 +26193,7 @@
       <c r="B1801" s="32">
         <v>8</v>
       </c>
-      <c r="C1801" s="18" t="s">
+      <c r="C1801" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1801" s="31">
@@ -26207,7 +26207,7 @@
       <c r="B1802" s="18">
         <v>9</v>
       </c>
-      <c r="C1802" s="18" t="s">
+      <c r="C1802" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1802" s="31">
@@ -26443,7 +26443,7 @@
       <c r="B1819" s="32">
         <v>1</v>
       </c>
-      <c r="C1819" s="18" t="s">
+      <c r="C1819" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1819" s="31">
@@ -26457,7 +26457,7 @@
       <c r="B1820" s="18">
         <v>2</v>
       </c>
-      <c r="C1820" s="18" t="s">
+      <c r="C1820" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1820" s="31">
@@ -26471,7 +26471,7 @@
       <c r="B1821" s="32">
         <v>3</v>
       </c>
-      <c r="C1821" s="18" t="s">
+      <c r="C1821" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1821" s="31">
@@ -26485,7 +26485,7 @@
       <c r="B1822" s="18">
         <v>4</v>
       </c>
-      <c r="C1822" s="18" t="s">
+      <c r="C1822" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1822" s="31">
@@ -26499,7 +26499,7 @@
       <c r="B1823" s="32">
         <v>5</v>
       </c>
-      <c r="C1823" s="18" t="s">
+      <c r="C1823" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1823" s="31">
@@ -26513,7 +26513,7 @@
       <c r="B1824" s="18">
         <v>6</v>
       </c>
-      <c r="C1824" s="18" t="s">
+      <c r="C1824" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1824" s="31">
@@ -26527,7 +26527,7 @@
       <c r="B1825" s="32">
         <v>7</v>
       </c>
-      <c r="C1825" s="18" t="s">
+      <c r="C1825" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1825" s="31">
@@ -26541,7 +26541,7 @@
       <c r="B1826" s="18">
         <v>8</v>
       </c>
-      <c r="C1826" s="18" t="s">
+      <c r="C1826" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1826" s="31">
@@ -26555,7 +26555,7 @@
       <c r="B1827" s="32">
         <v>9</v>
       </c>
-      <c r="C1827" s="18" t="s">
+      <c r="C1827" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1827" s="31">
@@ -26581,7 +26581,7 @@
       <c r="B1829" s="32">
         <v>1</v>
       </c>
-      <c r="C1829" s="18" t="s">
+      <c r="C1829" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1829" s="31">
@@ -26595,7 +26595,7 @@
       <c r="B1830" s="18">
         <v>2</v>
       </c>
-      <c r="C1830" s="18" t="s">
+      <c r="C1830" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1830" s="31">
@@ -26609,7 +26609,7 @@
       <c r="B1831" s="32">
         <v>3</v>
       </c>
-      <c r="C1831" s="18" t="s">
+      <c r="C1831" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1831" s="31">
@@ -26623,7 +26623,7 @@
       <c r="B1832" s="18">
         <v>4</v>
       </c>
-      <c r="C1832" s="18" t="s">
+      <c r="C1832" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1832" s="31">
@@ -26637,7 +26637,7 @@
       <c r="B1833" s="32">
         <v>5</v>
       </c>
-      <c r="C1833" s="18" t="s">
+      <c r="C1833" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1833" s="31">
@@ -26651,7 +26651,7 @@
       <c r="B1834" s="18">
         <v>6</v>
       </c>
-      <c r="C1834" s="18" t="s">
+      <c r="C1834" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1834" s="31">
@@ -26665,7 +26665,7 @@
       <c r="B1835" s="32">
         <v>7</v>
       </c>
-      <c r="C1835" s="18" t="s">
+      <c r="C1835" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1835" s="31">
@@ -26679,7 +26679,7 @@
       <c r="B1836" s="18">
         <v>8</v>
       </c>
-      <c r="C1836" s="18" t="s">
+      <c r="C1836" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1836" s="31">
@@ -26693,7 +26693,7 @@
       <c r="B1837" s="32">
         <v>9</v>
       </c>
-      <c r="C1837" s="18" t="s">
+      <c r="C1837" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1837" s="31">
@@ -26719,7 +26719,7 @@
       <c r="B1839" s="32">
         <v>1</v>
       </c>
-      <c r="C1839" s="18" t="s">
+      <c r="C1839" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1839" s="31">
@@ -26733,7 +26733,7 @@
       <c r="B1840" s="18">
         <v>2</v>
       </c>
-      <c r="C1840" s="18" t="s">
+      <c r="C1840" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1840" s="31">
@@ -26747,7 +26747,7 @@
       <c r="B1841" s="32">
         <v>3</v>
       </c>
-      <c r="C1841" s="18" t="s">
+      <c r="C1841" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1841" s="31">
@@ -26761,7 +26761,7 @@
       <c r="B1842" s="18">
         <v>4</v>
       </c>
-      <c r="C1842" s="18" t="s">
+      <c r="C1842" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1842" s="31">
@@ -26775,7 +26775,7 @@
       <c r="B1843" s="32">
         <v>5</v>
       </c>
-      <c r="C1843" s="18" t="s">
+      <c r="C1843" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1843" s="31">
@@ -26789,7 +26789,7 @@
       <c r="B1844" s="18">
         <v>6</v>
       </c>
-      <c r="C1844" s="18" t="s">
+      <c r="C1844" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1844" s="31">
@@ -26803,7 +26803,7 @@
       <c r="B1845" s="32">
         <v>7</v>
       </c>
-      <c r="C1845" s="18" t="s">
+      <c r="C1845" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1845" s="31">
@@ -26817,7 +26817,7 @@
       <c r="B1846" s="18">
         <v>8</v>
       </c>
-      <c r="C1846" s="18" t="s">
+      <c r="C1846" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1846" s="31">
@@ -26831,7 +26831,7 @@
       <c r="B1847" s="32">
         <v>9</v>
       </c>
-      <c r="C1847" s="18" t="s">
+      <c r="C1847" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1847" s="31">
@@ -26871,7 +26871,7 @@
       <c r="B1850" s="18">
         <v>1</v>
       </c>
-      <c r="C1850" s="18" t="s">
+      <c r="C1850" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1850" s="31">
@@ -26885,7 +26885,7 @@
       <c r="B1851" s="32">
         <v>2</v>
       </c>
-      <c r="C1851" s="18" t="s">
+      <c r="C1851" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1851" s="31">
@@ -26913,7 +26913,7 @@
       <c r="B1853" s="32">
         <v>3</v>
       </c>
-      <c r="C1853" s="18" t="s">
+      <c r="C1853" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1853" s="31">
@@ -26927,7 +26927,7 @@
       <c r="B1854" s="18">
         <v>4</v>
       </c>
-      <c r="C1854" s="18" t="s">
+      <c r="C1854" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1854" s="31">
@@ -26955,7 +26955,7 @@
       <c r="B1856" s="18">
         <v>5</v>
       </c>
-      <c r="C1856" s="18" t="s">
+      <c r="C1856" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1856" s="31">
@@ -26983,7 +26983,7 @@
       <c r="B1858" s="18">
         <v>6</v>
       </c>
-      <c r="C1858" s="18" t="s">
+      <c r="C1858" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1858" s="31">
@@ -27025,7 +27025,7 @@
       <c r="B1861" s="18">
         <v>7</v>
       </c>
-      <c r="C1861" s="18" t="s">
+      <c r="C1861" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1861" s="31">
@@ -27067,7 +27067,7 @@
       <c r="B1864" s="32">
         <v>8</v>
       </c>
-      <c r="C1864" s="18" t="s">
+      <c r="C1864" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1864" s="31">
@@ -27081,7 +27081,7 @@
       <c r="B1865" s="18">
         <v>9</v>
       </c>
-      <c r="C1865" s="18" t="s">
+      <c r="C1865" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1865" s="31">
@@ -27751,7 +27751,7 @@
       <c r="B1913" s="18">
         <v>1</v>
       </c>
-      <c r="C1913" s="18" t="s">
+      <c r="C1913" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1913" s="31">
@@ -27779,7 +27779,7 @@
       <c r="B1915" s="18">
         <v>2</v>
       </c>
-      <c r="C1915" s="18" t="s">
+      <c r="C1915" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1915" s="31">
@@ -27807,7 +27807,7 @@
       <c r="B1917" s="18">
         <v>3</v>
       </c>
-      <c r="C1917" s="18" t="s">
+      <c r="C1917" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1917" s="31">
@@ -27835,7 +27835,7 @@
       <c r="B1919" s="18">
         <v>4</v>
       </c>
-      <c r="C1919" s="18" t="s">
+      <c r="C1919" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1919" s="31">
@@ -27863,7 +27863,7 @@
       <c r="B1921" s="18">
         <v>5</v>
       </c>
-      <c r="C1921" s="18" t="s">
+      <c r="C1921" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1921" s="31">
@@ -27891,7 +27891,7 @@
       <c r="B1923" s="18">
         <v>6</v>
       </c>
-      <c r="C1923" s="18" t="s">
+      <c r="C1923" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1923" s="31">
@@ -27989,7 +27989,7 @@
       <c r="B1930" s="32">
         <v>7</v>
       </c>
-      <c r="C1930" s="18" t="s">
+      <c r="C1930" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1930" s="31">
@@ -28087,7 +28087,7 @@
       <c r="B1937" s="32">
         <v>8</v>
       </c>
-      <c r="C1937" s="18" t="s">
+      <c r="C1937" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1937" s="31">
@@ -28185,7 +28185,7 @@
       <c r="B1944" s="18">
         <v>9</v>
       </c>
-      <c r="C1944" s="18" t="s">
+      <c r="C1944" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1944" s="31">
@@ -28421,7 +28421,7 @@
       <c r="B1961" s="32">
         <v>1</v>
       </c>
-      <c r="C1961" s="18" t="s">
+      <c r="C1961" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D1961" s="31">
@@ -29233,7 +29233,7 @@
       <c r="B2019" s="18">
         <v>1</v>
       </c>
-      <c r="C2019" s="18" t="s">
+      <c r="C2019" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2019" s="27">
@@ -29247,7 +29247,7 @@
       <c r="B2020" s="18">
         <v>2</v>
       </c>
-      <c r="C2020" s="18" t="s">
+      <c r="C2020" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2020" s="36">
@@ -29261,7 +29261,7 @@
       <c r="B2021" s="18">
         <v>3</v>
       </c>
-      <c r="C2021" s="18" t="s">
+      <c r="C2021" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2021" s="22">
@@ -29275,7 +29275,7 @@
       <c r="B2022" s="18">
         <v>4</v>
       </c>
-      <c r="C2022" s="18" t="s">
+      <c r="C2022" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2022" s="36">
@@ -29289,7 +29289,7 @@
       <c r="B2023" s="18">
         <v>5</v>
       </c>
-      <c r="C2023" s="18" t="s">
+      <c r="C2023" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2023" s="38">
@@ -29303,7 +29303,7 @@
       <c r="B2024" s="18">
         <v>6</v>
       </c>
-      <c r="C2024" s="18" t="s">
+      <c r="C2024" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2024" s="27">
@@ -29317,7 +29317,7 @@
       <c r="B2025" s="18">
         <v>7</v>
       </c>
-      <c r="C2025" s="18" t="s">
+      <c r="C2025" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2025" s="27">
@@ -29331,7 +29331,7 @@
       <c r="B2026" s="18">
         <v>8</v>
       </c>
-      <c r="C2026" s="18" t="s">
+      <c r="C2026" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2026" s="27">
@@ -29345,7 +29345,7 @@
       <c r="B2027" s="18">
         <v>9</v>
       </c>
-      <c r="C2027" s="18" t="s">
+      <c r="C2027" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2027" s="27">
@@ -29581,7 +29581,7 @@
       <c r="B2044" s="18">
         <v>1</v>
       </c>
-      <c r="C2044" s="18" t="s">
+      <c r="C2044" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2044" s="27">
@@ -29595,7 +29595,7 @@
       <c r="B2045" s="18">
         <v>2</v>
       </c>
-      <c r="C2045" s="18" t="s">
+      <c r="C2045" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2045" s="27">
@@ -29609,7 +29609,7 @@
       <c r="B2046" s="18">
         <v>3</v>
       </c>
-      <c r="C2046" s="18" t="s">
+      <c r="C2046" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2046" s="27">
@@ -29623,7 +29623,7 @@
       <c r="B2047" s="18">
         <v>4</v>
       </c>
-      <c r="C2047" s="18" t="s">
+      <c r="C2047" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2047" s="27">
@@ -29637,7 +29637,7 @@
       <c r="B2048" s="18">
         <v>5</v>
       </c>
-      <c r="C2048" s="18" t="s">
+      <c r="C2048" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2048" s="38">
@@ -29651,7 +29651,7 @@
       <c r="B2049" s="18">
         <v>6</v>
       </c>
-      <c r="C2049" s="18" t="s">
+      <c r="C2049" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2049" s="27">
@@ -29665,7 +29665,7 @@
       <c r="B2050" s="18">
         <v>7</v>
       </c>
-      <c r="C2050" s="18" t="s">
+      <c r="C2050" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2050" s="27">
@@ -29679,7 +29679,7 @@
       <c r="B2051" s="18">
         <v>8</v>
       </c>
-      <c r="C2051" s="18" t="s">
+      <c r="C2051" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2051" s="27">
@@ -29693,7 +29693,7 @@
       <c r="B2052" s="18">
         <v>9</v>
       </c>
-      <c r="C2052" s="18" t="s">
+      <c r="C2052" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2052" s="27">
@@ -29733,7 +29733,7 @@
       <c r="B2055" s="18">
         <v>1</v>
       </c>
-      <c r="C2055" s="18" t="s">
+      <c r="C2055" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2055" s="27">
@@ -29761,7 +29761,7 @@
       <c r="B2057" s="18">
         <v>2</v>
       </c>
-      <c r="C2057" s="18" t="s">
+      <c r="C2057" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2057" s="27">
@@ -29789,7 +29789,7 @@
       <c r="B2059" s="18">
         <v>3</v>
       </c>
-      <c r="C2059" s="18" t="s">
+      <c r="C2059" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2059" s="36">
@@ -29817,7 +29817,7 @@
       <c r="B2061" s="18">
         <v>4</v>
       </c>
-      <c r="C2061" s="18" t="s">
+      <c r="C2061" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2061" s="27">
@@ -29845,7 +29845,7 @@
       <c r="B2063" s="18">
         <v>5</v>
       </c>
-      <c r="C2063" s="18" t="s">
+      <c r="C2063" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2063" s="27">
@@ -29873,7 +29873,7 @@
       <c r="B2065" s="18">
         <v>6</v>
       </c>
-      <c r="C2065" s="18" t="s">
+      <c r="C2065" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2065" s="27">
@@ -29929,7 +29929,7 @@
       <c r="B2069" s="18">
         <v>7</v>
       </c>
-      <c r="C2069" s="18" t="s">
+      <c r="C2069" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2069" s="27">
@@ -29985,7 +29985,7 @@
       <c r="B2073" s="18">
         <v>8</v>
       </c>
-      <c r="C2073" s="18" t="s">
+      <c r="C2073" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2073" s="27">
@@ -30041,7 +30041,7 @@
       <c r="B2077" s="18">
         <v>9</v>
       </c>
-      <c r="C2077" s="18" t="s">
+      <c r="C2077" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2077" s="27">
@@ -30067,7 +30067,7 @@
       <c r="B2079" s="18">
         <v>1</v>
       </c>
-      <c r="C2079" s="18" t="s">
+      <c r="C2079" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2079" s="27">
@@ -30081,7 +30081,7 @@
       <c r="B2080" s="18">
         <v>2</v>
       </c>
-      <c r="C2080" s="18" t="s">
+      <c r="C2080" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2080" s="27">
@@ -30095,7 +30095,7 @@
       <c r="B2081" s="18">
         <v>3</v>
       </c>
-      <c r="C2081" s="18" t="s">
+      <c r="C2081" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2081" s="27">
@@ -30109,7 +30109,7 @@
       <c r="B2082" s="18">
         <v>4</v>
       </c>
-      <c r="C2082" s="18" t="s">
+      <c r="C2082" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2082" s="27">
@@ -30123,7 +30123,7 @@
       <c r="B2083" s="18">
         <v>5</v>
       </c>
-      <c r="C2083" s="18" t="s">
+      <c r="C2083" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2083" s="27">
@@ -30137,7 +30137,7 @@
       <c r="B2084" s="18">
         <v>6</v>
       </c>
-      <c r="C2084" s="18" t="s">
+      <c r="C2084" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2084" s="27">
@@ -30151,7 +30151,7 @@
       <c r="B2085" s="18">
         <v>7</v>
       </c>
-      <c r="C2085" s="18" t="s">
+      <c r="C2085" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2085" s="27">
@@ -30165,7 +30165,7 @@
       <c r="B2086" s="18">
         <v>8</v>
       </c>
-      <c r="C2086" s="18" t="s">
+      <c r="C2086" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2086" s="27">
@@ -30179,7 +30179,7 @@
       <c r="B2087" s="18">
         <v>9</v>
       </c>
-      <c r="C2087" s="18" t="s">
+      <c r="C2087" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D2087" s="36">
